--- a/Excel_profile_templates/Profile Template - CC MedicationStatement.xlsx
+++ b/Excel_profile_templates/Profile Template - CC MedicationStatement.xlsx
@@ -12,24 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="229">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Card.</t>
+  </si>
+  <si>
     <t>Select</t>
   </si>
   <si>
-    <t>Card.</t>
+    <t>Conformance</t>
   </si>
   <si>
     <t>Mandatory</t>
   </si>
   <si>
     <t>Required</t>
-  </si>
-  <si>
-    <t>Conformance</t>
   </si>
   <si>
     <t>Optional</t>
@@ -95,7 +95,7 @@
   </si>
   <si>
     <t>Language of the resource content
-Binding (extensible): A human language. ( http://hl7.org/fhir/stu3/valueset-languages.html )</t>
+Binding (extensible): A human language. [Common Languages](http://hl7.org/fhir/stu3/valueset-languages.html)</t>
   </si>
   <si>
     <t>- text</t>
@@ -159,7 +159,7 @@
   </si>
   <si>
     <t>usual : official : temp : secondary (If known)
-Binding (required): Identifies the purpose for this identifier, if known . ( http://hl7.org/fhir/stu3/valueset-identifier-use.html )</t>
+Binding (required): Identifies the purpose for this identifier, if known. [IdentifierUse](http://hl7.org/fhir/stu3/valueset-identifier-use.html)</t>
   </si>
   <si>
     <t>- - type</t>
@@ -169,7 +169,7 @@
   </si>
   <si>
     <t>Description of identifier
-Binding (extensible): A coded type for an identifier that can be used to determine which identifier to use for a specific purpose. ( http://hl7.org/fhir/stu3/valueset-identifier-type.html )</t>
+Binding (extensible): A coded type for an identifier that can be used to determine which identifier to use for a specific purpose. [Identifier Type Codes](http://hl7.org/fhir/stu3/valueset-identifier-type.html)</t>
   </si>
   <si>
     <t>- - - coding</t>
@@ -322,14 +322,14 @@
   </si>
   <si>
     <t>active : completed : entered-in-error : intended : stopped : on-hold
-Binding (required): A coded concept indicating the current status of a MedicationStatement. (http://hl7.org/fhir/stu3/valueset-medication-statement-status.html )</t>
+Binding (required): A coded concept indicating the current status of a MedicationStatement. [MedicationStatementStatus](http://hl7.org/fhir/stu3/valueset-medication-statement-status.html)</t>
   </si>
   <si>
     <t>- category</t>
   </si>
   <si>
     <t>Type of medication usage
-Binding (preferred): A coded concept identifying where the medication included in the medicationstatement is expected to be consumed or administered ( http://hl7.org/fhir/stu3/valueset-medication-statement-category.html )</t>
+Binding (preferred): A coded concept identifying where the medication included in the medicationstatement is expected to be consumed or administered [MedicationStatementCategory](http://hl7.org/fhir/stu3/valueset-medication-statement-category.html)</t>
   </si>
   <si>
     <t>- - coding</t>
@@ -353,8 +353,8 @@
     <t>- medicationReference</t>
   </si>
   <si>
-    <t>What medication was taken
-Binding (example): A coded concept identifying the substance or product being taken. (http://hl7.org/fhir/stu3/valueset-medication-codes.html )</t>
+    <t xml:space="preserve">What medication was taken
+</t>
   </si>
   <si>
     <t>- effective[x]</t>
@@ -394,21 +394,21 @@
   </si>
   <si>
     <t>y : n : unk : na
-Binding (required): A coded concept identifying level of certainty if patient has taken or has not taken the medication ( http://hl7.org/fhir/stu3/valueset-medication-statement-taken.html )</t>
+Binding (required): A coded concept identifying level of certainty if patient has taken or has not taken the medication [MedicationStatementTaken](http://hl7.org/fhir/stu3/valueset-medication-statement-taken.html)</t>
   </si>
   <si>
     <t>- reasonNotTaken</t>
   </si>
   <si>
     <t>True if asserting medication was not given
-Binding (example): A coded concept indicating the reason why the medication was not taken (http://hl7.org/fhir/stu3/valueset-reason-medication-not-taken-codes.html )</t>
+Binding (example): A coded concept indicating the reason why the medication was not taken [SNOMED CT Drugs not taken/completed Codes](http://hl7.org/fhir/stu3/valueset-reason-medication-not-taken-codes.html)</t>
   </si>
   <si>
     <t>- reasonCode</t>
   </si>
   <si>
     <t>Reason for why the medication is being/was taken
-Binding (example): A coded concept identifying why the medication is being taken. (http://hl7.org/fhir/stu3/valueset-condition-code.html )</t>
+Binding (example): A coded concept identifying why the medication is being taken. [Condition/Problem/Diagnosis Codes](http://hl7.org/fhir/stu3/valueset-condition-code.html)</t>
   </si>
   <si>
     <t>- reasonReference</t>
@@ -430,9 +430,6 @@
     <t>- - author[x]</t>
   </si>
   <si>
-    <t>Reference | String</t>
-  </si>
-  <si>
     <t>Individual responsible for the annotation
 Constraint (ref-1): SHALL have a contained resource if a local reference is provided</t>
   </si>
@@ -471,7 +468,7 @@
   </si>
   <si>
     <t>Supplemental instruction - e.g. "with meals"
-Binding (example): A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery". ( http://hl7.org/fhir/stu3/valueset-additional-instruction-codes.html )</t>
+Binding (example): A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery". [SNOMED CT Additional Dosage Instructions](http://hl7.org/fhir/stu3/valueset-additional-instruction-codes.html)</t>
   </si>
   <si>
     <t>- - patientInstruction</t>
@@ -516,9 +513,6 @@
     <t>- - - - bounds[x]</t>
   </si>
   <si>
-    <t>Duration | Range | Period</t>
-  </si>
-  <si>
     <t>Length/Range of lengths, or (Start and/or end) limits
 Constraint (qty-3): If a code for the unit is present, the system SHALL also be present
 Constraint (drt-1): There SHALL be a code if there is a value and it SHALL be an expression of time. If system is present, it SHALL be UCUM.</t>
@@ -555,7 +549,7 @@
   </si>
   <si>
     <t>s : min : h : d : wk : mo : a - unit of time (UCUM)
-Binding (required): A unit of time (units from UCUM). ( http://hl7.org/fhir/stu3/valueset-units-of-time.html )</t>
+Binding (required): A unit of time (units from UCUM). [UnitsOfTime](http://hl7.org/fhir/stu3/valueset-units-of-time.html)</t>
   </si>
   <si>
     <t>- - - - frequency</t>
@@ -590,7 +584,7 @@
   </si>
   <si>
     <t>mon : tue : wed : thu : fri : sat : sun
-Binding (required): http://hl7.org/fhir/stu3/valueset-days-of-week.html</t>
+Binding (required): [DaysOfWeek](http://hl7.org/fhir/stu3/valueset-days-of-week.html)</t>
   </si>
   <si>
     <t>- - - - timeOfDay</t>
@@ -606,7 +600,7 @@
   </si>
   <si>
     <t>Regular life events the event is tied to
-Binding (required): Real world event relating to the schedule. ( http://hl7.org/fhir/stu3/valueset-event-timing.html )</t>
+Binding (required): Real world event relating to the schedule. [EventTiming](http://hl7.org/fhir/stu3/valueset-event-timing.html)</t>
   </si>
   <si>
     <t>- - - - offset</t>
@@ -619,7 +613,7 @@
   </si>
   <si>
     <t>BID : TID : QID : AM : PM : QD : QOD : Q4H : Q6H +
-Binding (preferred): Code for a known / defined timing pattern. ( http://hl7.org/fhir/stu3/valueset-timing-abbreviation.html )</t>
+Binding (preferred): Code for a known / defined timing pattern. [TimingAbbreviation](http://hl7.org/fhir/stu3/valueset-timing-abbreviation.html)</t>
   </si>
   <si>
     <t>- - - - coding</t>
@@ -646,25 +640,22 @@
     <t>- - asNeeded[x]</t>
   </si>
   <si>
-    <t>Boolean | CodeableConcept</t>
-  </si>
-  <si>
     <t>Take "as needed" (for x)
-Binding (example): A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose. For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc. ( http://hl7.org/fhir/stu3/valueset-medication-as-needed-reason.html )</t>
+Binding (example): A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose. For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc. [SNOMED CT Medication As Needed Reason Codes](http://hl7.org/fhir/stu3/valueset-medication-as-needed-reason.html)</t>
   </si>
   <si>
     <t>- - site</t>
   </si>
   <si>
     <t>Body site to administer to
-Binding (example): A coded concept describing the site location the medicine enters into or onto the body. ( http://hl7.org/fhir/stu3/valueset-approach-site-codes.html )</t>
+Binding (example): A coded concept describing the site location the medicine enters into or onto the body. [SNOMED CT Anatomical Structure for Administration Site Codes](http://hl7.org/fhir/stu3/valueset-approach-site-codes.html)</t>
   </si>
   <si>
     <t>- - route</t>
   </si>
   <si>
     <t>How drug should enter body
-Binding (example): A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject. ( http://hl7.org/fhir/stu3/valueset-route-codes.html )</t>
+Binding (example): A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject. [SNOMED CT Route Codes](http://hl7.org/fhir/stu3/valueset-route-codes.html)</t>
   </si>
   <si>
     <t>Code defined by a terminology system
@@ -675,27 +666,24 @@
   </si>
   <si>
     <t>Code defined by a terminology system
-Binding (example): A code from the SNOMED Clinical Terminology UK coding system that describes the e-Prescribing route of administration. ( https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-MedicationDosageRoute-1 )</t>
+Binding (example): A code from the SNOMED Clinical Terminology UK coding system that describes the e-Prescribing route of administration. [CareConnect-MedicationDosageRoute-1](https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-MedicationDosageRoute-1)</t>
   </si>
   <si>
     <t>- - - - extension (snomedCTDescriptionID)</t>
   </si>
   <si>
     <t>Identity of the terminology system
-Fixed Value: http://snomed.info/sct</t>
+&lt;font color='red'&gt;The value attribute of the profile element MUST contain the value 'http://snomed.info/sct'&lt;/font&gt;</t>
   </si>
   <si>
     <t>- - method</t>
   </si>
   <si>
     <t>Technique for administering medication
-Binding (example): A coded concept describing the technique by which the medicine is administered. (http://hl7.org/fhir/stu3/valueset-administration-method-codes.html )</t>
+Binding (example): A coded concept describing the technique by which the medicine is administered. [SNOMED CT Administration Method Codes](http://hl7.org/fhir/stu3/valueset-administration-method-codes.html)</t>
   </si>
   <si>
     <t>- - dose[x]</t>
-  </si>
-  <si>
-    <t>Range | Quantity (SimpleQuantity )</t>
   </si>
   <si>
     <t>Amount of medication per dose
@@ -732,7 +720,7 @@
   </si>
   <si>
     <t>&lt; : &lt;= : &gt;= : &gt; - how to understand the value
-Binding (required): How the Quantity should be understood and represented. (http://hl7.org/fhir/stu3/valueset-quantity-comparator.html )</t>
+Binding (required): How the Quantity should be understood and represented. [QuantityComparator](http://hl7.org/fhir/stu3/valueset-quantity-comparator.html)</t>
   </si>
   <si>
     <t>- - - - unit</t>
@@ -755,9 +743,6 @@
   </si>
   <si>
     <t>- - maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t>Quantity ( SimpleQuantity )</t>
   </si>
   <si>
     <t>Upper limit on medication per administration
@@ -783,7 +768,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -830,13 +815,6 @@
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="8.0"/>
-      <color rgb="FF474747"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
-    </font>
-    <font>
       <u/>
       <sz val="8.0"/>
       <color rgb="FF005EB8"/>
@@ -861,6 +839,7 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
       <sz val="8.0"/>
       <color rgb="FF005EB8"/>
       <name val="&quot;Helvetica Neue&quot;"/>
@@ -892,18 +871,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -935,25 +914,16 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
@@ -994,7 +964,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="19.57"/>
+    <col customWidth="1" min="4" max="4" width="32.0"/>
     <col customWidth="1" min="5" max="5" width="58.43"/>
   </cols>
   <sheetData>
@@ -1002,13 +972,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1036,7 +1006,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>15</v>
@@ -1053,7 +1023,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>18</v>
@@ -1070,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>21</v>
@@ -1087,12 +1057,12 @@
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1104,7 +1074,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>27</v>
@@ -1121,7 +1091,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>31</v>
@@ -1138,13 +1108,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-MedicationStatementLastIssueDate-1","Extension-CareConnect-MedicationStatementLastIssueDate-1")</f>
         <v>Extension-CareConnect-MedicationStatementLastIssueDate-1</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1156,13 +1126,13 @@
         <v>30</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-MedicationChangeSummary-1","Extension-CareConnect-MedicationChangeSummary-1")</f>
         <v>Extension-CareConnect-MedicationChangeSummary-1</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1174,7 +1144,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>38</v>
@@ -1191,7 +1161,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>41</v>
@@ -1208,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>24</v>
@@ -1225,12 +1195,12 @@
         <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1242,7 +1212,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>49</v>
@@ -1259,7 +1229,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>21</v>
@@ -1276,7 +1246,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>54</v>
@@ -1293,7 +1263,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>24</v>
@@ -1310,7 +1280,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>54</v>
@@ -1327,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>61</v>
@@ -1344,7 +1314,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>54</v>
@@ -1361,7 +1331,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>21</v>
@@ -1378,7 +1348,7 @@
         <v>66</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>54</v>
@@ -1395,7 +1365,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>71</v>
@@ -1412,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>74</v>
@@ -1429,7 +1399,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>74</v>
@@ -1445,10 +1415,10 @@
       <c r="B27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="16" t="str">
+      <c r="C27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -1459,10 +1429,10 @@
     <row r="28">
       <c r="A28" s="9"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="16" t="str">
+      <c r="C28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
@@ -1476,7 +1446,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>54</v>
@@ -1493,7 +1463,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>41</v>
@@ -1510,7 +1480,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>54</v>
@@ -1527,9 +1497,9 @@
         <v>30</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="16" t="str">
+        <v>2</v>
+      </c>
+      <c r="D32" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -1541,9 +1511,9 @@
       <c r="A33" s="9"/>
       <c r="B33" s="6"/>
       <c r="C33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="17" t="str">
+        <v>2</v>
+      </c>
+      <c r="D33" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/CarePlan","CarePlan")</f>
         <v>CarePlan</v>
       </c>
@@ -1553,9 +1523,9 @@
       <c r="A34" s="9"/>
       <c r="B34" s="6"/>
       <c r="C34" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="17" t="str">
+        <v>2</v>
+      </c>
+      <c r="D34" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/ProcedureRequest","ProcedureRequest")</f>
         <v>ProcedureRequest</v>
       </c>
@@ -1565,9 +1535,9 @@
       <c r="A35" s="9"/>
       <c r="B35" s="6"/>
       <c r="C35" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="17" t="str">
+        <v>2</v>
+      </c>
+      <c r="D35" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/ReferralRequest","ReferralRequest")</f>
         <v>ReferralRequest</v>
       </c>
@@ -1577,9 +1547,9 @@
       <c r="A36" s="9"/>
       <c r="B36" s="6"/>
       <c r="C36" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="17" t="str">
+        <v>2</v>
+      </c>
+      <c r="D36" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-MedicationRequest-1","CareConnect-MedicationRequest-1")</f>
         <v>CareConnect-MedicationRequest-1</v>
       </c>
@@ -1593,7 +1563,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>54</v>
@@ -1610,7 +1580,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>41</v>
@@ -1627,7 +1597,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>54</v>
@@ -1644,9 +1614,9 @@
         <v>30</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="16" t="str">
+        <v>2</v>
+      </c>
+      <c r="D40" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -1658,9 +1628,9 @@
       <c r="A41" s="9"/>
       <c r="B41" s="6"/>
       <c r="C41" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="17" t="str">
+        <v>2</v>
+      </c>
+      <c r="D41" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/MedicationAdministration","MedicationAdministration")</f>
         <v>MedicationAdministration</v>
       </c>
@@ -1670,9 +1640,9 @@
       <c r="A42" s="9"/>
       <c r="B42" s="6"/>
       <c r="C42" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="17" t="str">
+        <v>2</v>
+      </c>
+      <c r="D42" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Procedure-1","CareConnect-Procedure-1")</f>
         <v>CareConnect-Procedure-1</v>
       </c>
@@ -1682,9 +1652,9 @@
       <c r="A43" s="9"/>
       <c r="B43" s="6"/>
       <c r="C43" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="17" t="str">
+        <v>2</v>
+      </c>
+      <c r="D43" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Observation-1","CareConnect-Observation-1")</f>
         <v>CareConnect-Observation-1</v>
       </c>
@@ -1694,9 +1664,9 @@
       <c r="A44" s="9"/>
       <c r="B44" s="6"/>
       <c r="C44" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="17" t="str">
+        <v>2</v>
+      </c>
+      <c r="D44" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-MedicationStatement-1","CareConnect-MedicationStatement-1")</f>
         <v>CareConnect-MedicationStatement-1</v>
       </c>
@@ -1706,9 +1676,9 @@
       <c r="A45" s="9"/>
       <c r="B45" s="6"/>
       <c r="C45" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="17" t="str">
+        <v>2</v>
+      </c>
+      <c r="D45" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-MedicationDispense-1","CareConnect-MedicationDispense-1")</f>
         <v>CareConnect-MedicationDispense-1</v>
       </c>
@@ -1722,7 +1692,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>54</v>
@@ -1739,7 +1709,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>41</v>
@@ -1756,7 +1726,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>54</v>
@@ -1773,9 +1743,9 @@
         <v>14</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="16" t="str">
+        <v>2</v>
+      </c>
+      <c r="D49" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -1787,9 +1757,9 @@
       <c r="A50" s="9"/>
       <c r="B50" s="6"/>
       <c r="C50" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="17" t="str">
+        <v>2</v>
+      </c>
+      <c r="D50" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/EpisodeOfCare","EpisodeOfCare")</f>
         <v>EpisodeOfCare</v>
       </c>
@@ -1799,9 +1769,9 @@
       <c r="A51" s="9"/>
       <c r="B51" s="6"/>
       <c r="C51" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="17" t="str">
+        <v>2</v>
+      </c>
+      <c r="D51" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1","CareConnect-Encounter-1")</f>
         <v>CareConnect-Encounter-1</v>
       </c>
@@ -1815,7 +1785,7 @@
         <v>14</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>54</v>
@@ -1832,7 +1802,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>41</v>
@@ -1849,7 +1819,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>54</v>
@@ -1866,12 +1836,12 @@
         <v>66</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1883,12 +1853,12 @@
         <v>14</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="8" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1900,7 +1870,7 @@
         <v>30</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>49</v>
@@ -1917,7 +1887,7 @@
         <v>14</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>21</v>
@@ -1934,7 +1904,7 @@
         <v>14</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>54</v>
@@ -1951,7 +1921,7 @@
         <v>14</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>24</v>
@@ -1968,7 +1938,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>54</v>
@@ -1985,7 +1955,7 @@
         <v>14</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>61</v>
@@ -2002,7 +1972,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>54</v>
@@ -2019,13 +1989,13 @@
         <v>66</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="16" t="str">
+        <v>4</v>
+      </c>
+      <c r="D64" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2033,9 +2003,9 @@
       <c r="A65" s="9"/>
       <c r="B65" s="6"/>
       <c r="C65" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="17" t="str">
+        <v>4</v>
+      </c>
+      <c r="D65" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Medication-1","CareConnect-Medication-1")</f>
         <v>CareConnect-Medication-1</v>
       </c>
@@ -2049,7 +2019,7 @@
         <v>14</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>74</v>
@@ -2061,8 +2031,10 @@
     <row r="67">
       <c r="A67" s="9"/>
       <c r="B67" s="6"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="13" t="str">
+      <c r="C67" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
         <v>Period</v>
       </c>
@@ -2076,7 +2048,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>74</v>
@@ -2093,9 +2065,9 @@
         <v>14</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="16" t="str">
+        <v>2</v>
+      </c>
+      <c r="D69" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -2106,8 +2078,10 @@
     <row r="70">
       <c r="A70" s="9"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="17" t="str">
+      <c r="C70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/RelatedPerson","RelatedPerson")</f>
         <v>RelatedPerson</v>
       </c>
@@ -2116,8 +2090,10 @@
     <row r="71">
       <c r="A71" s="9"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="16" t="str">
+      <c r="C71" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
@@ -2126,8 +2102,10 @@
     <row r="72">
       <c r="A72" s="9"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="16" t="str">
+      <c r="C72" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
         <v>CareConnect-Patient-1</v>
       </c>
@@ -2136,8 +2114,10 @@
     <row r="73">
       <c r="A73" s="9"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="16" t="str">
+      <c r="C73" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1","CareConnect-Practitioner-1")</f>
         <v>CareConnect-Practitioner-1</v>
       </c>
@@ -2151,7 +2131,7 @@
         <v>14</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>54</v>
@@ -2168,7 +2148,7 @@
         <v>14</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>41</v>
@@ -2185,7 +2165,7 @@
         <v>14</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>54</v>
@@ -2202,9 +2182,9 @@
         <v>66</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="16" t="str">
+        <v>4</v>
+      </c>
+      <c r="D77" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -2215,8 +2195,10 @@
     <row r="78">
       <c r="A78" s="9"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="17" t="str">
+      <c r="C78" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Group","Group")</f>
         <v>Group</v>
       </c>
@@ -2225,8 +2207,10 @@
     <row r="79">
       <c r="A79" s="9"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="16" t="str">
+      <c r="C79" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
         <v>CareConnect-Patient-1</v>
       </c>
@@ -2240,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>54</v>
@@ -2257,7 +2241,7 @@
         <v>14</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>41</v>
@@ -2274,7 +2258,7 @@
         <v>14</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>54</v>
@@ -2291,9 +2275,9 @@
         <v>30</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="16" t="str">
+        <v>2</v>
+      </c>
+      <c r="D83" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -2304,8 +2288,10 @@
     <row r="84">
       <c r="A84" s="9"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="17" t="str">
+      <c r="C84" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Resource","Resource")</f>
         <v>Resource</v>
       </c>
@@ -2319,7 +2305,7 @@
         <v>14</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>54</v>
@@ -2336,7 +2322,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>41</v>
@@ -2353,7 +2339,7 @@
         <v>14</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>54</v>
@@ -2370,7 +2356,7 @@
         <v>66</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>24</v>
@@ -2387,12 +2373,12 @@
         <v>30</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="8" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2404,7 +2390,7 @@
         <v>30</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>49</v>
@@ -2421,7 +2407,7 @@
         <v>14</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>21</v>
@@ -2438,7 +2424,7 @@
         <v>14</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>54</v>
@@ -2455,7 +2441,7 @@
         <v>14</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>24</v>
@@ -2472,7 +2458,7 @@
         <v>14</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>54</v>
@@ -2489,7 +2475,7 @@
         <v>14</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>61</v>
@@ -2506,7 +2492,7 @@
         <v>14</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>54</v>
@@ -2523,12 +2509,12 @@
         <v>30</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2540,7 +2526,7 @@
         <v>30</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>49</v>
@@ -2557,7 +2543,7 @@
         <v>14</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>21</v>
@@ -2574,7 +2560,7 @@
         <v>14</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>54</v>
@@ -2591,7 +2577,7 @@
         <v>14</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>24</v>
@@ -2608,7 +2594,7 @@
         <v>14</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>54</v>
@@ -2625,7 +2611,7 @@
         <v>14</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>61</v>
@@ -2642,7 +2628,7 @@
         <v>14</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>54</v>
@@ -2659,9 +2645,9 @@
         <v>30</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" s="16" t="str">
+        <v>2</v>
+      </c>
+      <c r="D105" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -2672,8 +2658,10 @@
     <row r="106">
       <c r="A106" s="9"/>
       <c r="B106" s="6"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="17" t="str">
+      <c r="C106" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Observation-1","CareConnect-Observation-1")</f>
         <v>CareConnect-Observation-1</v>
       </c>
@@ -2682,8 +2670,10 @@
     <row r="107">
       <c r="A107" s="9"/>
       <c r="B107" s="6"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="17" t="str">
+      <c r="C107" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Condition-1","CareConnect-Condition-1")</f>
         <v>CareConnect-Condition-1</v>
       </c>
@@ -2697,7 +2687,7 @@
         <v>14</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>54</v>
@@ -2714,7 +2704,7 @@
         <v>14</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>41</v>
@@ -2731,7 +2721,7 @@
         <v>14</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>54</v>
@@ -2748,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>126</v>
@@ -2765,20 +2755,23 @@
         <v>14</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="15" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
+        <v>Reference</v>
+      </c>
+      <c r="E112" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="9"/>
       <c r="B113" s="6"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="17" t="str">
+      <c r="C113" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/RelatedPerson","RelatedPerson")</f>
         <v>RelatedPerson</v>
       </c>
@@ -2787,8 +2780,10 @@
     <row r="114">
       <c r="A114" s="9"/>
       <c r="B114" s="6"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="16" t="str">
+      <c r="C114" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
         <v>CareConnect-Patient-1</v>
       </c>
@@ -2797,1525 +2792,1503 @@
     <row r="115">
       <c r="A115" s="9"/>
       <c r="B115" s="6"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="16" t="str">
+      <c r="C115" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1","CareConnect-Practitioner-1")</f>
         <v>CareConnect-Practitioner-1</v>
       </c>
       <c r="E115" s="8"/>
     </row>
     <row r="116">
-      <c r="A116" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A116" s="9"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>132</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E116" s="8"/>
     </row>
     <row r="117">
       <c r="A117" s="9" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="9" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="9" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>142</v>
+        <v>54</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="9" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="9" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>138</v>
+        <v>2</v>
+      </c>
+      <c r="D134" s="17" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#duration","Duration")</f>
+        <v>Duration</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A135" s="9"/>
+      <c r="B135" s="6"/>
       <c r="C135" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>159</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D135" s="12" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#range","Range")</f>
+        <v>Range</v>
+      </c>
+      <c r="E135" s="8"/>
     </row>
     <row r="136">
-      <c r="A136" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A136" s="9"/>
+      <c r="B136" s="6"/>
       <c r="C136" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>162</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D136" s="12" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
+        <v>Period</v>
+      </c>
+      <c r="E136" s="8"/>
     </row>
     <row r="137">
       <c r="A137" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="9" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E146" s="12" t="s">
-        <v>182</v>
+      <c r="E146" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="9" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="9" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="9" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D156" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>196</v>
+        <v>2</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>198</v>
+        <v>61</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="9" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="9" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A160" s="9"/>
+      <c r="B160" s="6"/>
       <c r="C160" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E160" s="8"/>
     </row>
     <row r="161">
       <c r="A161" s="9" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="9" t="s">
-        <v>199</v>
+        <v>56</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E165" s="12" t="s">
-        <v>200</v>
+        <v>24</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="9" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E167" s="12" t="s">
-        <v>203</v>
+        <v>61</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="9" t="s">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="B168" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C168" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D168" s="13" t="str">
+      <c r="C170" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="12" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
         <v>Extension-coding-sctdescid</v>
       </c>
-      <c r="E168" s="14" t="s">
+      <c r="E172" s="13" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E171" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E172" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="9" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E175" s="12" t="s">
-        <v>207</v>
+        <v>24</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="9" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="9" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D183" s="19" t="s">
-        <v>209</v>
+        <v>2</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="9" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="9" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="9" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="9" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="D187" s="17" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#range","Range")</f>
+        <v>Range</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A188" s="9"/>
+      <c r="B188" s="6"/>
       <c r="C188" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D188" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E188" s="8" t="s">
-        <v>222</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D188" s="12" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/SimpleQuantity","Quantity (SimpleQuantity )")</f>
+        <v>Quantity (SimpleQuantity )</v>
+      </c>
+      <c r="E188" s="8"/>
     </row>
     <row r="189">
       <c r="A189" s="9" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="9" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="9" t="s">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="9" t="s">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="9" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D197" s="20" t="s">
-        <v>228</v>
+        <v>2</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="9" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="9" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="9" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="9" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="9" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D202" s="19" t="s">
-        <v>228</v>
+        <v>2</v>
+      </c>
+      <c r="D202" s="12" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/SimpleQuantity","Quantity (SimpleQuantity )")</f>
+        <v>Quantity (SimpleQuantity )</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="205">
@@ -4326,13 +4299,13 @@
         <v>14</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="206">
@@ -4343,2483 +4316,2569 @@
         <v>14</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="21"/>
+      <c r="A207" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" s="12" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/SimpleQuantity","Quantity (SimpleQuantity )")</f>
+        <v>Quantity (SimpleQuantity )</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" s="21"/>
+      <c r="A208" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" s="21"/>
+      <c r="A209" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="210">
-      <c r="A210" s="21"/>
+      <c r="A210" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" s="21"/>
+      <c r="A211" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" s="21"/>
+      <c r="A212" s="18"/>
     </row>
     <row r="213">
-      <c r="A213" s="21"/>
+      <c r="A213" s="18"/>
     </row>
     <row r="214">
-      <c r="A214" s="21"/>
+      <c r="A214" s="18"/>
     </row>
     <row r="215">
-      <c r="A215" s="21"/>
+      <c r="A215" s="18"/>
     </row>
     <row r="216">
-      <c r="A216" s="21"/>
+      <c r="A216" s="18"/>
     </row>
     <row r="217">
-      <c r="A217" s="21"/>
+      <c r="A217" s="18"/>
     </row>
     <row r="218">
-      <c r="A218" s="21"/>
+      <c r="A218" s="18"/>
     </row>
     <row r="219">
-      <c r="A219" s="21"/>
+      <c r="A219" s="18"/>
     </row>
     <row r="220">
-      <c r="A220" s="21"/>
+      <c r="A220" s="18"/>
     </row>
     <row r="221">
-      <c r="A221" s="21"/>
+      <c r="A221" s="18"/>
     </row>
     <row r="222">
-      <c r="A222" s="21"/>
+      <c r="A222" s="18"/>
     </row>
     <row r="223">
-      <c r="A223" s="21"/>
+      <c r="A223" s="18"/>
     </row>
     <row r="224">
-      <c r="A224" s="21"/>
+      <c r="A224" s="18"/>
     </row>
     <row r="225">
-      <c r="A225" s="21"/>
+      <c r="A225" s="18"/>
     </row>
     <row r="226">
-      <c r="A226" s="21"/>
+      <c r="A226" s="18"/>
     </row>
     <row r="227">
-      <c r="A227" s="21"/>
+      <c r="A227" s="18"/>
     </row>
     <row r="228">
-      <c r="A228" s="21"/>
+      <c r="A228" s="18"/>
     </row>
     <row r="229">
-      <c r="A229" s="21"/>
+      <c r="A229" s="18"/>
     </row>
     <row r="230">
-      <c r="A230" s="21"/>
+      <c r="A230" s="18"/>
     </row>
     <row r="231">
-      <c r="A231" s="21"/>
+      <c r="A231" s="18"/>
     </row>
     <row r="232">
-      <c r="A232" s="21"/>
+      <c r="A232" s="18"/>
     </row>
     <row r="233">
-      <c r="A233" s="21"/>
+      <c r="A233" s="18"/>
     </row>
     <row r="234">
-      <c r="A234" s="21"/>
+      <c r="A234" s="18"/>
     </row>
     <row r="235">
-      <c r="A235" s="21"/>
+      <c r="A235" s="18"/>
     </row>
     <row r="236">
-      <c r="A236" s="21"/>
+      <c r="A236" s="18"/>
     </row>
     <row r="237">
-      <c r="A237" s="21"/>
+      <c r="A237" s="18"/>
     </row>
     <row r="238">
-      <c r="A238" s="21"/>
+      <c r="A238" s="18"/>
     </row>
     <row r="239">
-      <c r="A239" s="21"/>
+      <c r="A239" s="18"/>
     </row>
     <row r="240">
-      <c r="A240" s="21"/>
+      <c r="A240" s="18"/>
     </row>
     <row r="241">
-      <c r="A241" s="21"/>
+      <c r="A241" s="18"/>
     </row>
     <row r="242">
-      <c r="A242" s="21"/>
+      <c r="A242" s="18"/>
     </row>
     <row r="243">
-      <c r="A243" s="21"/>
+      <c r="A243" s="18"/>
     </row>
     <row r="244">
-      <c r="A244" s="21"/>
+      <c r="A244" s="18"/>
     </row>
     <row r="245">
-      <c r="A245" s="21"/>
+      <c r="A245" s="18"/>
     </row>
     <row r="246">
-      <c r="A246" s="21"/>
+      <c r="A246" s="18"/>
     </row>
     <row r="247">
-      <c r="A247" s="21"/>
+      <c r="A247" s="18"/>
     </row>
     <row r="248">
-      <c r="A248" s="21"/>
+      <c r="A248" s="18"/>
     </row>
     <row r="249">
-      <c r="A249" s="21"/>
+      <c r="A249" s="18"/>
     </row>
     <row r="250">
-      <c r="A250" s="21"/>
+      <c r="A250" s="18"/>
     </row>
     <row r="251">
-      <c r="A251" s="21"/>
+      <c r="A251" s="18"/>
     </row>
     <row r="252">
-      <c r="A252" s="21"/>
+      <c r="A252" s="18"/>
     </row>
     <row r="253">
-      <c r="A253" s="21"/>
+      <c r="A253" s="18"/>
     </row>
     <row r="254">
-      <c r="A254" s="21"/>
+      <c r="A254" s="18"/>
     </row>
     <row r="255">
-      <c r="A255" s="21"/>
+      <c r="A255" s="18"/>
     </row>
     <row r="256">
-      <c r="A256" s="21"/>
+      <c r="A256" s="18"/>
     </row>
     <row r="257">
-      <c r="A257" s="21"/>
+      <c r="A257" s="18"/>
     </row>
     <row r="258">
-      <c r="A258" s="21"/>
+      <c r="A258" s="18"/>
     </row>
     <row r="259">
-      <c r="A259" s="21"/>
+      <c r="A259" s="18"/>
     </row>
     <row r="260">
-      <c r="A260" s="21"/>
+      <c r="A260" s="18"/>
     </row>
     <row r="261">
-      <c r="A261" s="21"/>
+      <c r="A261" s="18"/>
     </row>
     <row r="262">
-      <c r="A262" s="21"/>
+      <c r="A262" s="18"/>
     </row>
     <row r="263">
-      <c r="A263" s="21"/>
+      <c r="A263" s="18"/>
     </row>
     <row r="264">
-      <c r="A264" s="21"/>
+      <c r="A264" s="18"/>
     </row>
     <row r="265">
-      <c r="A265" s="21"/>
+      <c r="A265" s="18"/>
     </row>
     <row r="266">
-      <c r="A266" s="21"/>
+      <c r="A266" s="18"/>
     </row>
     <row r="267">
-      <c r="A267" s="21"/>
+      <c r="A267" s="18"/>
     </row>
     <row r="268">
-      <c r="A268" s="21"/>
+      <c r="A268" s="18"/>
     </row>
     <row r="269">
-      <c r="A269" s="21"/>
+      <c r="A269" s="18"/>
     </row>
     <row r="270">
-      <c r="A270" s="21"/>
+      <c r="A270" s="18"/>
     </row>
     <row r="271">
-      <c r="A271" s="21"/>
+      <c r="A271" s="18"/>
     </row>
     <row r="272">
-      <c r="A272" s="21"/>
+      <c r="A272" s="18"/>
     </row>
     <row r="273">
-      <c r="A273" s="21"/>
+      <c r="A273" s="18"/>
     </row>
     <row r="274">
-      <c r="A274" s="21"/>
+      <c r="A274" s="18"/>
     </row>
     <row r="275">
-      <c r="A275" s="21"/>
+      <c r="A275" s="18"/>
     </row>
     <row r="276">
-      <c r="A276" s="21"/>
+      <c r="A276" s="18"/>
     </row>
     <row r="277">
-      <c r="A277" s="21"/>
+      <c r="A277" s="18"/>
     </row>
     <row r="278">
-      <c r="A278" s="21"/>
+      <c r="A278" s="18"/>
     </row>
     <row r="279">
-      <c r="A279" s="21"/>
+      <c r="A279" s="18"/>
     </row>
     <row r="280">
-      <c r="A280" s="21"/>
+      <c r="A280" s="18"/>
     </row>
     <row r="281">
-      <c r="A281" s="21"/>
+      <c r="A281" s="18"/>
     </row>
     <row r="282">
-      <c r="A282" s="21"/>
+      <c r="A282" s="18"/>
     </row>
     <row r="283">
-      <c r="A283" s="21"/>
+      <c r="A283" s="18"/>
     </row>
     <row r="284">
-      <c r="A284" s="21"/>
+      <c r="A284" s="18"/>
     </row>
     <row r="285">
-      <c r="A285" s="21"/>
+      <c r="A285" s="18"/>
     </row>
     <row r="286">
-      <c r="A286" s="21"/>
+      <c r="A286" s="18"/>
     </row>
     <row r="287">
-      <c r="A287" s="21"/>
+      <c r="A287" s="18"/>
     </row>
     <row r="288">
-      <c r="A288" s="21"/>
+      <c r="A288" s="18"/>
     </row>
     <row r="289">
-      <c r="A289" s="21"/>
+      <c r="A289" s="18"/>
     </row>
     <row r="290">
-      <c r="A290" s="21"/>
+      <c r="A290" s="18"/>
     </row>
     <row r="291">
-      <c r="A291" s="21"/>
+      <c r="A291" s="18"/>
     </row>
     <row r="292">
-      <c r="A292" s="21"/>
+      <c r="A292" s="18"/>
     </row>
     <row r="293">
-      <c r="A293" s="21"/>
+      <c r="A293" s="18"/>
     </row>
     <row r="294">
-      <c r="A294" s="21"/>
+      <c r="A294" s="18"/>
     </row>
     <row r="295">
-      <c r="A295" s="21"/>
+      <c r="A295" s="18"/>
     </row>
     <row r="296">
-      <c r="A296" s="21"/>
+      <c r="A296" s="18"/>
     </row>
     <row r="297">
-      <c r="A297" s="21"/>
+      <c r="A297" s="18"/>
     </row>
     <row r="298">
-      <c r="A298" s="21"/>
+      <c r="A298" s="18"/>
     </row>
     <row r="299">
-      <c r="A299" s="21"/>
+      <c r="A299" s="18"/>
     </row>
     <row r="300">
-      <c r="A300" s="21"/>
+      <c r="A300" s="18"/>
     </row>
     <row r="301">
-      <c r="A301" s="21"/>
+      <c r="A301" s="18"/>
     </row>
     <row r="302">
-      <c r="A302" s="21"/>
+      <c r="A302" s="18"/>
     </row>
     <row r="303">
-      <c r="A303" s="21"/>
+      <c r="A303" s="18"/>
     </row>
     <row r="304">
-      <c r="A304" s="21"/>
+      <c r="A304" s="18"/>
     </row>
     <row r="305">
-      <c r="A305" s="21"/>
+      <c r="A305" s="18"/>
     </row>
     <row r="306">
-      <c r="A306" s="21"/>
+      <c r="A306" s="18"/>
     </row>
     <row r="307">
-      <c r="A307" s="21"/>
+      <c r="A307" s="18"/>
     </row>
     <row r="308">
-      <c r="A308" s="21"/>
+      <c r="A308" s="18"/>
     </row>
     <row r="309">
-      <c r="A309" s="21"/>
+      <c r="A309" s="18"/>
     </row>
     <row r="310">
-      <c r="A310" s="21"/>
+      <c r="A310" s="18"/>
     </row>
     <row r="311">
-      <c r="A311" s="21"/>
+      <c r="A311" s="18"/>
     </row>
     <row r="312">
-      <c r="A312" s="21"/>
+      <c r="A312" s="18"/>
     </row>
     <row r="313">
-      <c r="A313" s="21"/>
+      <c r="A313" s="18"/>
     </row>
     <row r="314">
-      <c r="A314" s="21"/>
+      <c r="A314" s="18"/>
     </row>
     <row r="315">
-      <c r="A315" s="21"/>
+      <c r="A315" s="18"/>
     </row>
     <row r="316">
-      <c r="A316" s="21"/>
+      <c r="A316" s="18"/>
     </row>
     <row r="317">
-      <c r="A317" s="21"/>
+      <c r="A317" s="18"/>
     </row>
     <row r="318">
-      <c r="A318" s="21"/>
+      <c r="A318" s="18"/>
     </row>
     <row r="319">
-      <c r="A319" s="21"/>
+      <c r="A319" s="18"/>
     </row>
     <row r="320">
-      <c r="A320" s="21"/>
+      <c r="A320" s="18"/>
     </row>
     <row r="321">
-      <c r="A321" s="21"/>
+      <c r="A321" s="18"/>
     </row>
     <row r="322">
-      <c r="A322" s="21"/>
+      <c r="A322" s="18"/>
     </row>
     <row r="323">
-      <c r="A323" s="21"/>
+      <c r="A323" s="18"/>
     </row>
     <row r="324">
-      <c r="A324" s="21"/>
+      <c r="A324" s="18"/>
     </row>
     <row r="325">
-      <c r="A325" s="21"/>
+      <c r="A325" s="18"/>
     </row>
     <row r="326">
-      <c r="A326" s="21"/>
+      <c r="A326" s="18"/>
     </row>
     <row r="327">
-      <c r="A327" s="21"/>
+      <c r="A327" s="18"/>
     </row>
     <row r="328">
-      <c r="A328" s="21"/>
+      <c r="A328" s="18"/>
     </row>
     <row r="329">
-      <c r="A329" s="21"/>
+      <c r="A329" s="18"/>
     </row>
     <row r="330">
-      <c r="A330" s="21"/>
+      <c r="A330" s="18"/>
     </row>
     <row r="331">
-      <c r="A331" s="21"/>
+      <c r="A331" s="18"/>
     </row>
     <row r="332">
-      <c r="A332" s="21"/>
+      <c r="A332" s="18"/>
     </row>
     <row r="333">
-      <c r="A333" s="21"/>
+      <c r="A333" s="18"/>
     </row>
     <row r="334">
-      <c r="A334" s="21"/>
+      <c r="A334" s="18"/>
     </row>
     <row r="335">
-      <c r="A335" s="21"/>
+      <c r="A335" s="18"/>
     </row>
     <row r="336">
-      <c r="A336" s="21"/>
+      <c r="A336" s="18"/>
     </row>
     <row r="337">
-      <c r="A337" s="21"/>
+      <c r="A337" s="18"/>
     </row>
     <row r="338">
-      <c r="A338" s="21"/>
+      <c r="A338" s="18"/>
     </row>
     <row r="339">
-      <c r="A339" s="21"/>
+      <c r="A339" s="18"/>
     </row>
     <row r="340">
-      <c r="A340" s="21"/>
+      <c r="A340" s="18"/>
     </row>
     <row r="341">
-      <c r="A341" s="21"/>
+      <c r="A341" s="18"/>
     </row>
     <row r="342">
-      <c r="A342" s="21"/>
+      <c r="A342" s="18"/>
     </row>
     <row r="343">
-      <c r="A343" s="21"/>
+      <c r="A343" s="18"/>
     </row>
     <row r="344">
-      <c r="A344" s="21"/>
+      <c r="A344" s="18"/>
     </row>
     <row r="345">
-      <c r="A345" s="21"/>
+      <c r="A345" s="18"/>
     </row>
     <row r="346">
-      <c r="A346" s="21"/>
+      <c r="A346" s="18"/>
     </row>
     <row r="347">
-      <c r="A347" s="21"/>
+      <c r="A347" s="18"/>
     </row>
     <row r="348">
-      <c r="A348" s="21"/>
+      <c r="A348" s="18"/>
     </row>
     <row r="349">
-      <c r="A349" s="21"/>
+      <c r="A349" s="18"/>
     </row>
     <row r="350">
-      <c r="A350" s="21"/>
+      <c r="A350" s="18"/>
     </row>
     <row r="351">
-      <c r="A351" s="21"/>
+      <c r="A351" s="18"/>
     </row>
     <row r="352">
-      <c r="A352" s="21"/>
+      <c r="A352" s="18"/>
     </row>
     <row r="353">
-      <c r="A353" s="21"/>
+      <c r="A353" s="18"/>
     </row>
     <row r="354">
-      <c r="A354" s="21"/>
+      <c r="A354" s="18"/>
     </row>
     <row r="355">
-      <c r="A355" s="21"/>
+      <c r="A355" s="18"/>
     </row>
     <row r="356">
-      <c r="A356" s="21"/>
+      <c r="A356" s="18"/>
     </row>
     <row r="357">
-      <c r="A357" s="21"/>
+      <c r="A357" s="18"/>
     </row>
     <row r="358">
-      <c r="A358" s="21"/>
+      <c r="A358" s="18"/>
     </row>
     <row r="359">
-      <c r="A359" s="21"/>
+      <c r="A359" s="18"/>
     </row>
     <row r="360">
-      <c r="A360" s="21"/>
+      <c r="A360" s="18"/>
     </row>
     <row r="361">
-      <c r="A361" s="21"/>
+      <c r="A361" s="18"/>
     </row>
     <row r="362">
-      <c r="A362" s="21"/>
+      <c r="A362" s="18"/>
     </row>
     <row r="363">
-      <c r="A363" s="21"/>
+      <c r="A363" s="18"/>
     </row>
     <row r="364">
-      <c r="A364" s="21"/>
+      <c r="A364" s="18"/>
     </row>
     <row r="365">
-      <c r="A365" s="21"/>
+      <c r="A365" s="18"/>
     </row>
     <row r="366">
-      <c r="A366" s="21"/>
+      <c r="A366" s="18"/>
     </row>
     <row r="367">
-      <c r="A367" s="21"/>
+      <c r="A367" s="18"/>
     </row>
     <row r="368">
-      <c r="A368" s="21"/>
+      <c r="A368" s="18"/>
     </row>
     <row r="369">
-      <c r="A369" s="21"/>
+      <c r="A369" s="18"/>
     </row>
     <row r="370">
-      <c r="A370" s="21"/>
+      <c r="A370" s="18"/>
     </row>
     <row r="371">
-      <c r="A371" s="21"/>
+      <c r="A371" s="18"/>
     </row>
     <row r="372">
-      <c r="A372" s="21"/>
+      <c r="A372" s="18"/>
     </row>
     <row r="373">
-      <c r="A373" s="21"/>
+      <c r="A373" s="18"/>
     </row>
     <row r="374">
-      <c r="A374" s="21"/>
+      <c r="A374" s="18"/>
     </row>
     <row r="375">
-      <c r="A375" s="21"/>
+      <c r="A375" s="18"/>
     </row>
     <row r="376">
-      <c r="A376" s="21"/>
+      <c r="A376" s="18"/>
     </row>
     <row r="377">
-      <c r="A377" s="21"/>
+      <c r="A377" s="18"/>
     </row>
     <row r="378">
-      <c r="A378" s="21"/>
+      <c r="A378" s="18"/>
     </row>
     <row r="379">
-      <c r="A379" s="21"/>
+      <c r="A379" s="18"/>
     </row>
     <row r="380">
-      <c r="A380" s="21"/>
+      <c r="A380" s="18"/>
     </row>
     <row r="381">
-      <c r="A381" s="21"/>
+      <c r="A381" s="18"/>
     </row>
     <row r="382">
-      <c r="A382" s="21"/>
+      <c r="A382" s="18"/>
     </row>
     <row r="383">
-      <c r="A383" s="21"/>
+      <c r="A383" s="18"/>
     </row>
     <row r="384">
-      <c r="A384" s="21"/>
+      <c r="A384" s="18"/>
     </row>
     <row r="385">
-      <c r="A385" s="21"/>
+      <c r="A385" s="18"/>
     </row>
     <row r="386">
-      <c r="A386" s="21"/>
+      <c r="A386" s="18"/>
     </row>
     <row r="387">
-      <c r="A387" s="21"/>
+      <c r="A387" s="18"/>
     </row>
     <row r="388">
-      <c r="A388" s="21"/>
+      <c r="A388" s="18"/>
     </row>
     <row r="389">
-      <c r="A389" s="21"/>
+      <c r="A389" s="18"/>
     </row>
     <row r="390">
-      <c r="A390" s="21"/>
+      <c r="A390" s="18"/>
     </row>
     <row r="391">
-      <c r="A391" s="21"/>
+      <c r="A391" s="18"/>
     </row>
     <row r="392">
-      <c r="A392" s="21"/>
+      <c r="A392" s="18"/>
     </row>
     <row r="393">
-      <c r="A393" s="21"/>
+      <c r="A393" s="18"/>
     </row>
     <row r="394">
-      <c r="A394" s="21"/>
+      <c r="A394" s="18"/>
     </row>
     <row r="395">
-      <c r="A395" s="21"/>
+      <c r="A395" s="18"/>
     </row>
     <row r="396">
-      <c r="A396" s="21"/>
+      <c r="A396" s="18"/>
     </row>
     <row r="397">
-      <c r="A397" s="21"/>
+      <c r="A397" s="18"/>
     </row>
     <row r="398">
-      <c r="A398" s="21"/>
+      <c r="A398" s="18"/>
     </row>
     <row r="399">
-      <c r="A399" s="21"/>
+      <c r="A399" s="18"/>
     </row>
     <row r="400">
-      <c r="A400" s="21"/>
+      <c r="A400" s="18"/>
     </row>
     <row r="401">
-      <c r="A401" s="21"/>
+      <c r="A401" s="18"/>
     </row>
     <row r="402">
-      <c r="A402" s="21"/>
+      <c r="A402" s="18"/>
     </row>
     <row r="403">
-      <c r="A403" s="21"/>
+      <c r="A403" s="18"/>
     </row>
     <row r="404">
-      <c r="A404" s="21"/>
+      <c r="A404" s="18"/>
     </row>
     <row r="405">
-      <c r="A405" s="21"/>
+      <c r="A405" s="18"/>
     </row>
     <row r="406">
-      <c r="A406" s="21"/>
+      <c r="A406" s="18"/>
     </row>
     <row r="407">
-      <c r="A407" s="21"/>
+      <c r="A407" s="18"/>
     </row>
     <row r="408">
-      <c r="A408" s="21"/>
+      <c r="A408" s="18"/>
     </row>
     <row r="409">
-      <c r="A409" s="21"/>
+      <c r="A409" s="18"/>
     </row>
     <row r="410">
-      <c r="A410" s="21"/>
+      <c r="A410" s="18"/>
     </row>
     <row r="411">
-      <c r="A411" s="21"/>
+      <c r="A411" s="18"/>
     </row>
     <row r="412">
-      <c r="A412" s="21"/>
+      <c r="A412" s="18"/>
     </row>
     <row r="413">
-      <c r="A413" s="21"/>
+      <c r="A413" s="18"/>
     </row>
     <row r="414">
-      <c r="A414" s="21"/>
+      <c r="A414" s="18"/>
     </row>
     <row r="415">
-      <c r="A415" s="21"/>
+      <c r="A415" s="18"/>
     </row>
     <row r="416">
-      <c r="A416" s="21"/>
+      <c r="A416" s="18"/>
     </row>
     <row r="417">
-      <c r="A417" s="21"/>
+      <c r="A417" s="18"/>
     </row>
     <row r="418">
-      <c r="A418" s="21"/>
+      <c r="A418" s="18"/>
     </row>
     <row r="419">
-      <c r="A419" s="21"/>
+      <c r="A419" s="18"/>
     </row>
     <row r="420">
-      <c r="A420" s="21"/>
+      <c r="A420" s="18"/>
     </row>
     <row r="421">
-      <c r="A421" s="21"/>
+      <c r="A421" s="18"/>
     </row>
     <row r="422">
-      <c r="A422" s="21"/>
+      <c r="A422" s="18"/>
     </row>
     <row r="423">
-      <c r="A423" s="21"/>
+      <c r="A423" s="18"/>
     </row>
     <row r="424">
-      <c r="A424" s="21"/>
+      <c r="A424" s="18"/>
     </row>
     <row r="425">
-      <c r="A425" s="21"/>
+      <c r="A425" s="18"/>
     </row>
     <row r="426">
-      <c r="A426" s="21"/>
+      <c r="A426" s="18"/>
     </row>
     <row r="427">
-      <c r="A427" s="21"/>
+      <c r="A427" s="18"/>
     </row>
     <row r="428">
-      <c r="A428" s="21"/>
+      <c r="A428" s="18"/>
     </row>
     <row r="429">
-      <c r="A429" s="21"/>
+      <c r="A429" s="18"/>
     </row>
     <row r="430">
-      <c r="A430" s="21"/>
+      <c r="A430" s="18"/>
     </row>
     <row r="431">
-      <c r="A431" s="21"/>
+      <c r="A431" s="18"/>
     </row>
     <row r="432">
-      <c r="A432" s="21"/>
+      <c r="A432" s="18"/>
     </row>
     <row r="433">
-      <c r="A433" s="21"/>
+      <c r="A433" s="18"/>
     </row>
     <row r="434">
-      <c r="A434" s="21"/>
+      <c r="A434" s="18"/>
     </row>
     <row r="435">
-      <c r="A435" s="21"/>
+      <c r="A435" s="18"/>
     </row>
     <row r="436">
-      <c r="A436" s="21"/>
+      <c r="A436" s="18"/>
     </row>
     <row r="437">
-      <c r="A437" s="21"/>
+      <c r="A437" s="18"/>
     </row>
     <row r="438">
-      <c r="A438" s="21"/>
+      <c r="A438" s="18"/>
     </row>
     <row r="439">
-      <c r="A439" s="21"/>
+      <c r="A439" s="18"/>
     </row>
     <row r="440">
-      <c r="A440" s="21"/>
+      <c r="A440" s="18"/>
     </row>
     <row r="441">
-      <c r="A441" s="21"/>
+      <c r="A441" s="18"/>
     </row>
     <row r="442">
-      <c r="A442" s="21"/>
+      <c r="A442" s="18"/>
     </row>
     <row r="443">
-      <c r="A443" s="21"/>
+      <c r="A443" s="18"/>
     </row>
     <row r="444">
-      <c r="A444" s="21"/>
+      <c r="A444" s="18"/>
     </row>
     <row r="445">
-      <c r="A445" s="21"/>
+      <c r="A445" s="18"/>
     </row>
     <row r="446">
-      <c r="A446" s="21"/>
+      <c r="A446" s="18"/>
     </row>
     <row r="447">
-      <c r="A447" s="21"/>
+      <c r="A447" s="18"/>
     </row>
     <row r="448">
-      <c r="A448" s="21"/>
+      <c r="A448" s="18"/>
     </row>
     <row r="449">
-      <c r="A449" s="21"/>
+      <c r="A449" s="18"/>
     </row>
     <row r="450">
-      <c r="A450" s="21"/>
+      <c r="A450" s="18"/>
     </row>
     <row r="451">
-      <c r="A451" s="21"/>
+      <c r="A451" s="18"/>
     </row>
     <row r="452">
-      <c r="A452" s="21"/>
+      <c r="A452" s="18"/>
     </row>
     <row r="453">
-      <c r="A453" s="21"/>
+      <c r="A453" s="18"/>
     </row>
     <row r="454">
-      <c r="A454" s="21"/>
+      <c r="A454" s="18"/>
     </row>
     <row r="455">
-      <c r="A455" s="21"/>
+      <c r="A455" s="18"/>
     </row>
     <row r="456">
-      <c r="A456" s="21"/>
+      <c r="A456" s="18"/>
     </row>
     <row r="457">
-      <c r="A457" s="21"/>
+      <c r="A457" s="18"/>
     </row>
     <row r="458">
-      <c r="A458" s="21"/>
+      <c r="A458" s="18"/>
     </row>
     <row r="459">
-      <c r="A459" s="21"/>
+      <c r="A459" s="18"/>
     </row>
     <row r="460">
-      <c r="A460" s="21"/>
+      <c r="A460" s="18"/>
     </row>
     <row r="461">
-      <c r="A461" s="21"/>
+      <c r="A461" s="18"/>
     </row>
     <row r="462">
-      <c r="A462" s="21"/>
+      <c r="A462" s="18"/>
     </row>
     <row r="463">
-      <c r="A463" s="21"/>
+      <c r="A463" s="18"/>
     </row>
     <row r="464">
-      <c r="A464" s="21"/>
+      <c r="A464" s="18"/>
     </row>
     <row r="465">
-      <c r="A465" s="21"/>
+      <c r="A465" s="18"/>
     </row>
     <row r="466">
-      <c r="A466" s="21"/>
+      <c r="A466" s="18"/>
     </row>
     <row r="467">
-      <c r="A467" s="21"/>
+      <c r="A467" s="18"/>
     </row>
     <row r="468">
-      <c r="A468" s="21"/>
+      <c r="A468" s="18"/>
     </row>
     <row r="469">
-      <c r="A469" s="21"/>
+      <c r="A469" s="18"/>
     </row>
     <row r="470">
-      <c r="A470" s="21"/>
+      <c r="A470" s="18"/>
     </row>
     <row r="471">
-      <c r="A471" s="21"/>
+      <c r="A471" s="18"/>
     </row>
     <row r="472">
-      <c r="A472" s="21"/>
+      <c r="A472" s="18"/>
     </row>
     <row r="473">
-      <c r="A473" s="21"/>
+      <c r="A473" s="18"/>
     </row>
     <row r="474">
-      <c r="A474" s="21"/>
+      <c r="A474" s="18"/>
     </row>
     <row r="475">
-      <c r="A475" s="21"/>
+      <c r="A475" s="18"/>
     </row>
     <row r="476">
-      <c r="A476" s="21"/>
+      <c r="A476" s="18"/>
     </row>
     <row r="477">
-      <c r="A477" s="21"/>
+      <c r="A477" s="18"/>
     </row>
     <row r="478">
-      <c r="A478" s="21"/>
+      <c r="A478" s="18"/>
     </row>
     <row r="479">
-      <c r="A479" s="21"/>
+      <c r="A479" s="18"/>
     </row>
     <row r="480">
-      <c r="A480" s="21"/>
+      <c r="A480" s="18"/>
     </row>
     <row r="481">
-      <c r="A481" s="21"/>
+      <c r="A481" s="18"/>
     </row>
     <row r="482">
-      <c r="A482" s="21"/>
+      <c r="A482" s="18"/>
     </row>
     <row r="483">
-      <c r="A483" s="21"/>
+      <c r="A483" s="18"/>
     </row>
     <row r="484">
-      <c r="A484" s="21"/>
+      <c r="A484" s="18"/>
     </row>
     <row r="485">
-      <c r="A485" s="21"/>
+      <c r="A485" s="18"/>
     </row>
     <row r="486">
-      <c r="A486" s="21"/>
+      <c r="A486" s="18"/>
     </row>
     <row r="487">
-      <c r="A487" s="21"/>
+      <c r="A487" s="18"/>
     </row>
     <row r="488">
-      <c r="A488" s="21"/>
+      <c r="A488" s="18"/>
     </row>
     <row r="489">
-      <c r="A489" s="21"/>
+      <c r="A489" s="18"/>
     </row>
     <row r="490">
-      <c r="A490" s="21"/>
+      <c r="A490" s="18"/>
     </row>
     <row r="491">
-      <c r="A491" s="21"/>
+      <c r="A491" s="18"/>
     </row>
     <row r="492">
-      <c r="A492" s="21"/>
+      <c r="A492" s="18"/>
     </row>
     <row r="493">
-      <c r="A493" s="21"/>
+      <c r="A493" s="18"/>
     </row>
     <row r="494">
-      <c r="A494" s="21"/>
+      <c r="A494" s="18"/>
     </row>
     <row r="495">
-      <c r="A495" s="21"/>
+      <c r="A495" s="18"/>
     </row>
     <row r="496">
-      <c r="A496" s="21"/>
+      <c r="A496" s="18"/>
     </row>
     <row r="497">
-      <c r="A497" s="21"/>
+      <c r="A497" s="18"/>
     </row>
     <row r="498">
-      <c r="A498" s="21"/>
+      <c r="A498" s="18"/>
     </row>
     <row r="499">
-      <c r="A499" s="21"/>
+      <c r="A499" s="18"/>
     </row>
     <row r="500">
-      <c r="A500" s="21"/>
+      <c r="A500" s="18"/>
     </row>
     <row r="501">
-      <c r="A501" s="21"/>
+      <c r="A501" s="18"/>
     </row>
     <row r="502">
-      <c r="A502" s="21"/>
+      <c r="A502" s="18"/>
     </row>
     <row r="503">
-      <c r="A503" s="21"/>
+      <c r="A503" s="18"/>
     </row>
     <row r="504">
-      <c r="A504" s="21"/>
+      <c r="A504" s="18"/>
     </row>
     <row r="505">
-      <c r="A505" s="21"/>
+      <c r="A505" s="18"/>
     </row>
     <row r="506">
-      <c r="A506" s="21"/>
+      <c r="A506" s="18"/>
     </row>
     <row r="507">
-      <c r="A507" s="21"/>
+      <c r="A507" s="18"/>
     </row>
     <row r="508">
-      <c r="A508" s="21"/>
+      <c r="A508" s="18"/>
     </row>
     <row r="509">
-      <c r="A509" s="21"/>
+      <c r="A509" s="18"/>
     </row>
     <row r="510">
-      <c r="A510" s="21"/>
+      <c r="A510" s="18"/>
     </row>
     <row r="511">
-      <c r="A511" s="21"/>
+      <c r="A511" s="18"/>
     </row>
     <row r="512">
-      <c r="A512" s="21"/>
+      <c r="A512" s="18"/>
     </row>
     <row r="513">
-      <c r="A513" s="21"/>
+      <c r="A513" s="18"/>
     </row>
     <row r="514">
-      <c r="A514" s="21"/>
+      <c r="A514" s="18"/>
     </row>
     <row r="515">
-      <c r="A515" s="21"/>
+      <c r="A515" s="18"/>
     </row>
     <row r="516">
-      <c r="A516" s="21"/>
+      <c r="A516" s="18"/>
     </row>
     <row r="517">
-      <c r="A517" s="21"/>
+      <c r="A517" s="18"/>
     </row>
     <row r="518">
-      <c r="A518" s="21"/>
+      <c r="A518" s="18"/>
     </row>
     <row r="519">
-      <c r="A519" s="21"/>
+      <c r="A519" s="18"/>
     </row>
     <row r="520">
-      <c r="A520" s="21"/>
+      <c r="A520" s="18"/>
     </row>
     <row r="521">
-      <c r="A521" s="21"/>
+      <c r="A521" s="18"/>
     </row>
     <row r="522">
-      <c r="A522" s="21"/>
+      <c r="A522" s="18"/>
     </row>
     <row r="523">
-      <c r="A523" s="21"/>
+      <c r="A523" s="18"/>
     </row>
     <row r="524">
-      <c r="A524" s="21"/>
+      <c r="A524" s="18"/>
     </row>
     <row r="525">
-      <c r="A525" s="21"/>
+      <c r="A525" s="18"/>
     </row>
     <row r="526">
-      <c r="A526" s="21"/>
+      <c r="A526" s="18"/>
     </row>
     <row r="527">
-      <c r="A527" s="21"/>
+      <c r="A527" s="18"/>
     </row>
     <row r="528">
-      <c r="A528" s="21"/>
+      <c r="A528" s="18"/>
     </row>
     <row r="529">
-      <c r="A529" s="21"/>
+      <c r="A529" s="18"/>
     </row>
     <row r="530">
-      <c r="A530" s="21"/>
+      <c r="A530" s="18"/>
     </row>
     <row r="531">
-      <c r="A531" s="21"/>
+      <c r="A531" s="18"/>
     </row>
     <row r="532">
-      <c r="A532" s="21"/>
+      <c r="A532" s="18"/>
     </row>
     <row r="533">
-      <c r="A533" s="21"/>
+      <c r="A533" s="18"/>
     </row>
     <row r="534">
-      <c r="A534" s="21"/>
+      <c r="A534" s="18"/>
     </row>
     <row r="535">
-      <c r="A535" s="21"/>
+      <c r="A535" s="18"/>
     </row>
     <row r="536">
-      <c r="A536" s="21"/>
+      <c r="A536" s="18"/>
     </row>
     <row r="537">
-      <c r="A537" s="21"/>
+      <c r="A537" s="18"/>
     </row>
     <row r="538">
-      <c r="A538" s="21"/>
+      <c r="A538" s="18"/>
     </row>
     <row r="539">
-      <c r="A539" s="21"/>
+      <c r="A539" s="18"/>
     </row>
     <row r="540">
-      <c r="A540" s="21"/>
+      <c r="A540" s="18"/>
     </row>
     <row r="541">
-      <c r="A541" s="21"/>
+      <c r="A541" s="18"/>
     </row>
     <row r="542">
-      <c r="A542" s="21"/>
+      <c r="A542" s="18"/>
     </row>
     <row r="543">
-      <c r="A543" s="21"/>
+      <c r="A543" s="18"/>
     </row>
     <row r="544">
-      <c r="A544" s="21"/>
+      <c r="A544" s="18"/>
     </row>
     <row r="545">
-      <c r="A545" s="21"/>
+      <c r="A545" s="18"/>
     </row>
     <row r="546">
-      <c r="A546" s="21"/>
+      <c r="A546" s="18"/>
     </row>
     <row r="547">
-      <c r="A547" s="21"/>
+      <c r="A547" s="18"/>
     </row>
     <row r="548">
-      <c r="A548" s="21"/>
+      <c r="A548" s="18"/>
     </row>
     <row r="549">
-      <c r="A549" s="21"/>
+      <c r="A549" s="18"/>
     </row>
     <row r="550">
-      <c r="A550" s="21"/>
+      <c r="A550" s="18"/>
     </row>
     <row r="551">
-      <c r="A551" s="21"/>
+      <c r="A551" s="18"/>
     </row>
     <row r="552">
-      <c r="A552" s="21"/>
+      <c r="A552" s="18"/>
     </row>
     <row r="553">
-      <c r="A553" s="21"/>
+      <c r="A553" s="18"/>
     </row>
     <row r="554">
-      <c r="A554" s="21"/>
+      <c r="A554" s="18"/>
     </row>
     <row r="555">
-      <c r="A555" s="21"/>
+      <c r="A555" s="18"/>
     </row>
     <row r="556">
-      <c r="A556" s="21"/>
+      <c r="A556" s="18"/>
     </row>
     <row r="557">
-      <c r="A557" s="21"/>
+      <c r="A557" s="18"/>
     </row>
     <row r="558">
-      <c r="A558" s="21"/>
+      <c r="A558" s="18"/>
     </row>
     <row r="559">
-      <c r="A559" s="21"/>
+      <c r="A559" s="18"/>
     </row>
     <row r="560">
-      <c r="A560" s="21"/>
+      <c r="A560" s="18"/>
     </row>
     <row r="561">
-      <c r="A561" s="21"/>
+      <c r="A561" s="18"/>
     </row>
     <row r="562">
-      <c r="A562" s="21"/>
+      <c r="A562" s="18"/>
     </row>
     <row r="563">
-      <c r="A563" s="21"/>
+      <c r="A563" s="18"/>
     </row>
     <row r="564">
-      <c r="A564" s="21"/>
+      <c r="A564" s="18"/>
     </row>
     <row r="565">
-      <c r="A565" s="21"/>
+      <c r="A565" s="18"/>
     </row>
     <row r="566">
-      <c r="A566" s="21"/>
+      <c r="A566" s="18"/>
     </row>
     <row r="567">
-      <c r="A567" s="21"/>
+      <c r="A567" s="18"/>
     </row>
     <row r="568">
-      <c r="A568" s="21"/>
+      <c r="A568" s="18"/>
     </row>
     <row r="569">
-      <c r="A569" s="21"/>
+      <c r="A569" s="18"/>
     </row>
     <row r="570">
-      <c r="A570" s="21"/>
+      <c r="A570" s="18"/>
     </row>
     <row r="571">
-      <c r="A571" s="21"/>
+      <c r="A571" s="18"/>
     </row>
     <row r="572">
-      <c r="A572" s="21"/>
+      <c r="A572" s="18"/>
     </row>
     <row r="573">
-      <c r="A573" s="21"/>
+      <c r="A573" s="18"/>
     </row>
     <row r="574">
-      <c r="A574" s="21"/>
+      <c r="A574" s="18"/>
     </row>
     <row r="575">
-      <c r="A575" s="21"/>
+      <c r="A575" s="18"/>
     </row>
     <row r="576">
-      <c r="A576" s="21"/>
+      <c r="A576" s="18"/>
     </row>
     <row r="577">
-      <c r="A577" s="21"/>
+      <c r="A577" s="18"/>
     </row>
     <row r="578">
-      <c r="A578" s="21"/>
+      <c r="A578" s="18"/>
     </row>
     <row r="579">
-      <c r="A579" s="21"/>
+      <c r="A579" s="18"/>
     </row>
     <row r="580">
-      <c r="A580" s="21"/>
+      <c r="A580" s="18"/>
     </row>
     <row r="581">
-      <c r="A581" s="21"/>
+      <c r="A581" s="18"/>
     </row>
     <row r="582">
-      <c r="A582" s="21"/>
+      <c r="A582" s="18"/>
     </row>
     <row r="583">
-      <c r="A583" s="21"/>
+      <c r="A583" s="18"/>
     </row>
     <row r="584">
-      <c r="A584" s="21"/>
+      <c r="A584" s="18"/>
     </row>
     <row r="585">
-      <c r="A585" s="21"/>
+      <c r="A585" s="18"/>
     </row>
     <row r="586">
-      <c r="A586" s="21"/>
+      <c r="A586" s="18"/>
     </row>
     <row r="587">
-      <c r="A587" s="21"/>
+      <c r="A587" s="18"/>
     </row>
     <row r="588">
-      <c r="A588" s="21"/>
+      <c r="A588" s="18"/>
     </row>
     <row r="589">
-      <c r="A589" s="21"/>
+      <c r="A589" s="18"/>
     </row>
     <row r="590">
-      <c r="A590" s="21"/>
+      <c r="A590" s="18"/>
     </row>
     <row r="591">
-      <c r="A591" s="21"/>
+      <c r="A591" s="18"/>
     </row>
     <row r="592">
-      <c r="A592" s="21"/>
+      <c r="A592" s="18"/>
     </row>
     <row r="593">
-      <c r="A593" s="21"/>
+      <c r="A593" s="18"/>
     </row>
     <row r="594">
-      <c r="A594" s="21"/>
+      <c r="A594" s="18"/>
     </row>
     <row r="595">
-      <c r="A595" s="21"/>
+      <c r="A595" s="18"/>
     </row>
     <row r="596">
-      <c r="A596" s="21"/>
+      <c r="A596" s="18"/>
     </row>
     <row r="597">
-      <c r="A597" s="21"/>
+      <c r="A597" s="18"/>
     </row>
     <row r="598">
-      <c r="A598" s="21"/>
+      <c r="A598" s="18"/>
     </row>
     <row r="599">
-      <c r="A599" s="21"/>
+      <c r="A599" s="18"/>
     </row>
     <row r="600">
-      <c r="A600" s="21"/>
+      <c r="A600" s="18"/>
     </row>
     <row r="601">
-      <c r="A601" s="21"/>
+      <c r="A601" s="18"/>
     </row>
     <row r="602">
-      <c r="A602" s="21"/>
+      <c r="A602" s="18"/>
     </row>
     <row r="603">
-      <c r="A603" s="21"/>
+      <c r="A603" s="18"/>
     </row>
     <row r="604">
-      <c r="A604" s="21"/>
+      <c r="A604" s="18"/>
     </row>
     <row r="605">
-      <c r="A605" s="21"/>
+      <c r="A605" s="18"/>
     </row>
     <row r="606">
-      <c r="A606" s="21"/>
+      <c r="A606" s="18"/>
     </row>
     <row r="607">
-      <c r="A607" s="21"/>
+      <c r="A607" s="18"/>
     </row>
     <row r="608">
-      <c r="A608" s="21"/>
+      <c r="A608" s="18"/>
     </row>
     <row r="609">
-      <c r="A609" s="21"/>
+      <c r="A609" s="18"/>
     </row>
     <row r="610">
-      <c r="A610" s="21"/>
+      <c r="A610" s="18"/>
     </row>
     <row r="611">
-      <c r="A611" s="21"/>
+      <c r="A611" s="18"/>
     </row>
     <row r="612">
-      <c r="A612" s="21"/>
+      <c r="A612" s="18"/>
     </row>
     <row r="613">
-      <c r="A613" s="21"/>
+      <c r="A613" s="18"/>
     </row>
     <row r="614">
-      <c r="A614" s="21"/>
+      <c r="A614" s="18"/>
     </row>
     <row r="615">
-      <c r="A615" s="21"/>
+      <c r="A615" s="18"/>
     </row>
     <row r="616">
-      <c r="A616" s="21"/>
+      <c r="A616" s="18"/>
     </row>
     <row r="617">
-      <c r="A617" s="21"/>
+      <c r="A617" s="18"/>
     </row>
     <row r="618">
-      <c r="A618" s="21"/>
+      <c r="A618" s="18"/>
     </row>
     <row r="619">
-      <c r="A619" s="21"/>
+      <c r="A619" s="18"/>
     </row>
     <row r="620">
-      <c r="A620" s="21"/>
+      <c r="A620" s="18"/>
     </row>
     <row r="621">
-      <c r="A621" s="21"/>
+      <c r="A621" s="18"/>
     </row>
     <row r="622">
-      <c r="A622" s="21"/>
+      <c r="A622" s="18"/>
     </row>
     <row r="623">
-      <c r="A623" s="21"/>
+      <c r="A623" s="18"/>
     </row>
     <row r="624">
-      <c r="A624" s="21"/>
+      <c r="A624" s="18"/>
     </row>
     <row r="625">
-      <c r="A625" s="21"/>
+      <c r="A625" s="18"/>
     </row>
     <row r="626">
-      <c r="A626" s="21"/>
+      <c r="A626" s="18"/>
     </row>
     <row r="627">
-      <c r="A627" s="21"/>
+      <c r="A627" s="18"/>
     </row>
     <row r="628">
-      <c r="A628" s="21"/>
+      <c r="A628" s="18"/>
     </row>
     <row r="629">
-      <c r="A629" s="21"/>
+      <c r="A629" s="18"/>
     </row>
     <row r="630">
-      <c r="A630" s="21"/>
+      <c r="A630" s="18"/>
     </row>
     <row r="631">
-      <c r="A631" s="21"/>
+      <c r="A631" s="18"/>
     </row>
     <row r="632">
-      <c r="A632" s="21"/>
+      <c r="A632" s="18"/>
     </row>
     <row r="633">
-      <c r="A633" s="21"/>
+      <c r="A633" s="18"/>
     </row>
     <row r="634">
-      <c r="A634" s="21"/>
+      <c r="A634" s="18"/>
     </row>
     <row r="635">
-      <c r="A635" s="21"/>
+      <c r="A635" s="18"/>
     </row>
     <row r="636">
-      <c r="A636" s="21"/>
+      <c r="A636" s="18"/>
     </row>
     <row r="637">
-      <c r="A637" s="21"/>
+      <c r="A637" s="18"/>
     </row>
     <row r="638">
-      <c r="A638" s="21"/>
+      <c r="A638" s="18"/>
     </row>
     <row r="639">
-      <c r="A639" s="21"/>
+      <c r="A639" s="18"/>
     </row>
     <row r="640">
-      <c r="A640" s="21"/>
+      <c r="A640" s="18"/>
     </row>
     <row r="641">
-      <c r="A641" s="21"/>
+      <c r="A641" s="18"/>
     </row>
     <row r="642">
-      <c r="A642" s="21"/>
+      <c r="A642" s="18"/>
     </row>
     <row r="643">
-      <c r="A643" s="21"/>
+      <c r="A643" s="18"/>
     </row>
     <row r="644">
-      <c r="A644" s="21"/>
+      <c r="A644" s="18"/>
     </row>
     <row r="645">
-      <c r="A645" s="21"/>
+      <c r="A645" s="18"/>
     </row>
     <row r="646">
-      <c r="A646" s="21"/>
+      <c r="A646" s="18"/>
     </row>
     <row r="647">
-      <c r="A647" s="21"/>
+      <c r="A647" s="18"/>
     </row>
     <row r="648">
-      <c r="A648" s="21"/>
+      <c r="A648" s="18"/>
     </row>
     <row r="649">
-      <c r="A649" s="21"/>
+      <c r="A649" s="18"/>
     </row>
     <row r="650">
-      <c r="A650" s="21"/>
+      <c r="A650" s="18"/>
     </row>
     <row r="651">
-      <c r="A651" s="21"/>
+      <c r="A651" s="18"/>
     </row>
     <row r="652">
-      <c r="A652" s="21"/>
+      <c r="A652" s="18"/>
     </row>
     <row r="653">
-      <c r="A653" s="21"/>
+      <c r="A653" s="18"/>
     </row>
     <row r="654">
-      <c r="A654" s="21"/>
+      <c r="A654" s="18"/>
     </row>
     <row r="655">
-      <c r="A655" s="21"/>
+      <c r="A655" s="18"/>
     </row>
     <row r="656">
-      <c r="A656" s="21"/>
+      <c r="A656" s="18"/>
     </row>
     <row r="657">
-      <c r="A657" s="21"/>
+      <c r="A657" s="18"/>
     </row>
     <row r="658">
-      <c r="A658" s="21"/>
+      <c r="A658" s="18"/>
     </row>
     <row r="659">
-      <c r="A659" s="21"/>
+      <c r="A659" s="18"/>
     </row>
     <row r="660">
-      <c r="A660" s="21"/>
+      <c r="A660" s="18"/>
     </row>
     <row r="661">
-      <c r="A661" s="21"/>
+      <c r="A661" s="18"/>
     </row>
     <row r="662">
-      <c r="A662" s="21"/>
+      <c r="A662" s="18"/>
     </row>
     <row r="663">
-      <c r="A663" s="21"/>
+      <c r="A663" s="18"/>
     </row>
     <row r="664">
-      <c r="A664" s="21"/>
+      <c r="A664" s="18"/>
     </row>
     <row r="665">
-      <c r="A665" s="21"/>
+      <c r="A665" s="18"/>
     </row>
     <row r="666">
-      <c r="A666" s="21"/>
+      <c r="A666" s="18"/>
     </row>
     <row r="667">
-      <c r="A667" s="21"/>
+      <c r="A667" s="18"/>
     </row>
     <row r="668">
-      <c r="A668" s="21"/>
+      <c r="A668" s="18"/>
     </row>
     <row r="669">
-      <c r="A669" s="21"/>
+      <c r="A669" s="18"/>
     </row>
     <row r="670">
-      <c r="A670" s="21"/>
+      <c r="A670" s="18"/>
     </row>
     <row r="671">
-      <c r="A671" s="21"/>
+      <c r="A671" s="18"/>
     </row>
     <row r="672">
-      <c r="A672" s="21"/>
+      <c r="A672" s="18"/>
     </row>
     <row r="673">
-      <c r="A673" s="21"/>
+      <c r="A673" s="18"/>
     </row>
     <row r="674">
-      <c r="A674" s="21"/>
+      <c r="A674" s="18"/>
     </row>
     <row r="675">
-      <c r="A675" s="21"/>
+      <c r="A675" s="18"/>
     </row>
     <row r="676">
-      <c r="A676" s="21"/>
+      <c r="A676" s="18"/>
     </row>
     <row r="677">
-      <c r="A677" s="21"/>
+      <c r="A677" s="18"/>
     </row>
     <row r="678">
-      <c r="A678" s="21"/>
+      <c r="A678" s="18"/>
     </row>
     <row r="679">
-      <c r="A679" s="21"/>
+      <c r="A679" s="18"/>
     </row>
     <row r="680">
-      <c r="A680" s="21"/>
+      <c r="A680" s="18"/>
     </row>
     <row r="681">
-      <c r="A681" s="21"/>
+      <c r="A681" s="18"/>
     </row>
     <row r="682">
-      <c r="A682" s="21"/>
+      <c r="A682" s="18"/>
     </row>
     <row r="683">
-      <c r="A683" s="21"/>
+      <c r="A683" s="18"/>
     </row>
     <row r="684">
-      <c r="A684" s="21"/>
+      <c r="A684" s="18"/>
     </row>
     <row r="685">
-      <c r="A685" s="21"/>
+      <c r="A685" s="18"/>
     </row>
     <row r="686">
-      <c r="A686" s="21"/>
+      <c r="A686" s="18"/>
     </row>
     <row r="687">
-      <c r="A687" s="21"/>
+      <c r="A687" s="18"/>
     </row>
     <row r="688">
-      <c r="A688" s="21"/>
+      <c r="A688" s="18"/>
     </row>
     <row r="689">
-      <c r="A689" s="21"/>
+      <c r="A689" s="18"/>
     </row>
     <row r="690">
-      <c r="A690" s="21"/>
+      <c r="A690" s="18"/>
     </row>
     <row r="691">
-      <c r="A691" s="21"/>
+      <c r="A691" s="18"/>
     </row>
     <row r="692">
-      <c r="A692" s="21"/>
+      <c r="A692" s="18"/>
     </row>
     <row r="693">
-      <c r="A693" s="21"/>
+      <c r="A693" s="18"/>
     </row>
     <row r="694">
-      <c r="A694" s="21"/>
+      <c r="A694" s="18"/>
     </row>
     <row r="695">
-      <c r="A695" s="21"/>
+      <c r="A695" s="18"/>
     </row>
     <row r="696">
-      <c r="A696" s="21"/>
+      <c r="A696" s="18"/>
     </row>
     <row r="697">
-      <c r="A697" s="21"/>
+      <c r="A697" s="18"/>
     </row>
     <row r="698">
-      <c r="A698" s="21"/>
+      <c r="A698" s="18"/>
     </row>
     <row r="699">
-      <c r="A699" s="21"/>
+      <c r="A699" s="18"/>
     </row>
     <row r="700">
-      <c r="A700" s="21"/>
+      <c r="A700" s="18"/>
     </row>
     <row r="701">
-      <c r="A701" s="21"/>
+      <c r="A701" s="18"/>
     </row>
     <row r="702">
-      <c r="A702" s="21"/>
+      <c r="A702" s="18"/>
     </row>
     <row r="703">
-      <c r="A703" s="21"/>
+      <c r="A703" s="18"/>
     </row>
     <row r="704">
-      <c r="A704" s="21"/>
+      <c r="A704" s="18"/>
     </row>
     <row r="705">
-      <c r="A705" s="21"/>
+      <c r="A705" s="18"/>
     </row>
     <row r="706">
-      <c r="A706" s="21"/>
+      <c r="A706" s="18"/>
     </row>
     <row r="707">
-      <c r="A707" s="21"/>
+      <c r="A707" s="18"/>
     </row>
     <row r="708">
-      <c r="A708" s="21"/>
+      <c r="A708" s="18"/>
     </row>
     <row r="709">
-      <c r="A709" s="21"/>
+      <c r="A709" s="18"/>
     </row>
     <row r="710">
-      <c r="A710" s="21"/>
+      <c r="A710" s="18"/>
     </row>
     <row r="711">
-      <c r="A711" s="21"/>
+      <c r="A711" s="18"/>
     </row>
     <row r="712">
-      <c r="A712" s="21"/>
+      <c r="A712" s="18"/>
     </row>
     <row r="713">
-      <c r="A713" s="21"/>
+      <c r="A713" s="18"/>
     </row>
     <row r="714">
-      <c r="A714" s="21"/>
+      <c r="A714" s="18"/>
     </row>
     <row r="715">
-      <c r="A715" s="21"/>
+      <c r="A715" s="18"/>
     </row>
     <row r="716">
-      <c r="A716" s="21"/>
+      <c r="A716" s="18"/>
     </row>
     <row r="717">
-      <c r="A717" s="21"/>
+      <c r="A717" s="18"/>
     </row>
     <row r="718">
-      <c r="A718" s="21"/>
+      <c r="A718" s="18"/>
     </row>
     <row r="719">
-      <c r="A719" s="21"/>
+      <c r="A719" s="18"/>
     </row>
     <row r="720">
-      <c r="A720" s="21"/>
+      <c r="A720" s="18"/>
     </row>
     <row r="721">
-      <c r="A721" s="21"/>
+      <c r="A721" s="18"/>
     </row>
     <row r="722">
-      <c r="A722" s="21"/>
+      <c r="A722" s="18"/>
     </row>
     <row r="723">
-      <c r="A723" s="21"/>
+      <c r="A723" s="18"/>
     </row>
     <row r="724">
-      <c r="A724" s="21"/>
+      <c r="A724" s="18"/>
     </row>
     <row r="725">
-      <c r="A725" s="21"/>
+      <c r="A725" s="18"/>
     </row>
     <row r="726">
-      <c r="A726" s="21"/>
+      <c r="A726" s="18"/>
     </row>
     <row r="727">
-      <c r="A727" s="21"/>
+      <c r="A727" s="18"/>
     </row>
     <row r="728">
-      <c r="A728" s="21"/>
+      <c r="A728" s="18"/>
     </row>
     <row r="729">
-      <c r="A729" s="21"/>
+      <c r="A729" s="18"/>
     </row>
     <row r="730">
-      <c r="A730" s="21"/>
+      <c r="A730" s="18"/>
     </row>
     <row r="731">
-      <c r="A731" s="21"/>
+      <c r="A731" s="18"/>
     </row>
     <row r="732">
-      <c r="A732" s="21"/>
+      <c r="A732" s="18"/>
     </row>
     <row r="733">
-      <c r="A733" s="21"/>
+      <c r="A733" s="18"/>
     </row>
     <row r="734">
-      <c r="A734" s="21"/>
+      <c r="A734" s="18"/>
     </row>
     <row r="735">
-      <c r="A735" s="21"/>
+      <c r="A735" s="18"/>
     </row>
     <row r="736">
-      <c r="A736" s="21"/>
+      <c r="A736" s="18"/>
     </row>
     <row r="737">
-      <c r="A737" s="21"/>
+      <c r="A737" s="18"/>
     </row>
     <row r="738">
-      <c r="A738" s="21"/>
+      <c r="A738" s="18"/>
     </row>
     <row r="739">
-      <c r="A739" s="21"/>
+      <c r="A739" s="18"/>
     </row>
     <row r="740">
-      <c r="A740" s="21"/>
+      <c r="A740" s="18"/>
     </row>
     <row r="741">
-      <c r="A741" s="21"/>
+      <c r="A741" s="18"/>
     </row>
     <row r="742">
-      <c r="A742" s="21"/>
+      <c r="A742" s="18"/>
     </row>
     <row r="743">
-      <c r="A743" s="21"/>
+      <c r="A743" s="18"/>
     </row>
     <row r="744">
-      <c r="A744" s="21"/>
+      <c r="A744" s="18"/>
     </row>
     <row r="745">
-      <c r="A745" s="21"/>
+      <c r="A745" s="18"/>
     </row>
     <row r="746">
-      <c r="A746" s="21"/>
+      <c r="A746" s="18"/>
     </row>
     <row r="747">
-      <c r="A747" s="21"/>
+      <c r="A747" s="18"/>
     </row>
     <row r="748">
-      <c r="A748" s="21"/>
+      <c r="A748" s="18"/>
     </row>
     <row r="749">
-      <c r="A749" s="21"/>
+      <c r="A749" s="18"/>
     </row>
     <row r="750">
-      <c r="A750" s="21"/>
+      <c r="A750" s="18"/>
     </row>
     <row r="751">
-      <c r="A751" s="21"/>
+      <c r="A751" s="18"/>
     </row>
     <row r="752">
-      <c r="A752" s="21"/>
+      <c r="A752" s="18"/>
     </row>
     <row r="753">
-      <c r="A753" s="21"/>
+      <c r="A753" s="18"/>
     </row>
     <row r="754">
-      <c r="A754" s="21"/>
+      <c r="A754" s="18"/>
     </row>
     <row r="755">
-      <c r="A755" s="21"/>
+      <c r="A755" s="18"/>
     </row>
     <row r="756">
-      <c r="A756" s="21"/>
+      <c r="A756" s="18"/>
     </row>
     <row r="757">
-      <c r="A757" s="21"/>
+      <c r="A757" s="18"/>
     </row>
     <row r="758">
-      <c r="A758" s="21"/>
+      <c r="A758" s="18"/>
     </row>
     <row r="759">
-      <c r="A759" s="21"/>
+      <c r="A759" s="18"/>
     </row>
     <row r="760">
-      <c r="A760" s="21"/>
+      <c r="A760" s="18"/>
     </row>
     <row r="761">
-      <c r="A761" s="21"/>
+      <c r="A761" s="18"/>
     </row>
     <row r="762">
-      <c r="A762" s="21"/>
+      <c r="A762" s="18"/>
     </row>
     <row r="763">
-      <c r="A763" s="21"/>
+      <c r="A763" s="18"/>
     </row>
     <row r="764">
-      <c r="A764" s="21"/>
+      <c r="A764" s="18"/>
     </row>
     <row r="765">
-      <c r="A765" s="21"/>
+      <c r="A765" s="18"/>
     </row>
     <row r="766">
-      <c r="A766" s="21"/>
+      <c r="A766" s="18"/>
     </row>
     <row r="767">
-      <c r="A767" s="21"/>
+      <c r="A767" s="18"/>
     </row>
     <row r="768">
-      <c r="A768" s="21"/>
+      <c r="A768" s="18"/>
     </row>
     <row r="769">
-      <c r="A769" s="21"/>
+      <c r="A769" s="18"/>
     </row>
     <row r="770">
-      <c r="A770" s="21"/>
+      <c r="A770" s="18"/>
     </row>
     <row r="771">
-      <c r="A771" s="21"/>
+      <c r="A771" s="18"/>
     </row>
     <row r="772">
-      <c r="A772" s="21"/>
+      <c r="A772" s="18"/>
     </row>
     <row r="773">
-      <c r="A773" s="21"/>
+      <c r="A773" s="18"/>
     </row>
     <row r="774">
-      <c r="A774" s="21"/>
+      <c r="A774" s="18"/>
     </row>
     <row r="775">
-      <c r="A775" s="21"/>
+      <c r="A775" s="18"/>
     </row>
     <row r="776">
-      <c r="A776" s="21"/>
+      <c r="A776" s="18"/>
     </row>
     <row r="777">
-      <c r="A777" s="21"/>
+      <c r="A777" s="18"/>
     </row>
     <row r="778">
-      <c r="A778" s="21"/>
+      <c r="A778" s="18"/>
     </row>
     <row r="779">
-      <c r="A779" s="21"/>
+      <c r="A779" s="18"/>
     </row>
     <row r="780">
-      <c r="A780" s="21"/>
+      <c r="A780" s="18"/>
     </row>
     <row r="781">
-      <c r="A781" s="21"/>
+      <c r="A781" s="18"/>
     </row>
     <row r="782">
-      <c r="A782" s="21"/>
+      <c r="A782" s="18"/>
     </row>
     <row r="783">
-      <c r="A783" s="21"/>
+      <c r="A783" s="18"/>
     </row>
     <row r="784">
-      <c r="A784" s="21"/>
+      <c r="A784" s="18"/>
     </row>
     <row r="785">
-      <c r="A785" s="21"/>
+      <c r="A785" s="18"/>
     </row>
     <row r="786">
-      <c r="A786" s="21"/>
+      <c r="A786" s="18"/>
     </row>
     <row r="787">
-      <c r="A787" s="21"/>
+      <c r="A787" s="18"/>
     </row>
     <row r="788">
-      <c r="A788" s="21"/>
+      <c r="A788" s="18"/>
     </row>
     <row r="789">
-      <c r="A789" s="21"/>
+      <c r="A789" s="18"/>
     </row>
     <row r="790">
-      <c r="A790" s="21"/>
+      <c r="A790" s="18"/>
     </row>
     <row r="791">
-      <c r="A791" s="21"/>
+      <c r="A791" s="18"/>
     </row>
     <row r="792">
-      <c r="A792" s="21"/>
+      <c r="A792" s="18"/>
     </row>
     <row r="793">
-      <c r="A793" s="21"/>
+      <c r="A793" s="18"/>
     </row>
     <row r="794">
-      <c r="A794" s="21"/>
+      <c r="A794" s="18"/>
     </row>
     <row r="795">
-      <c r="A795" s="21"/>
+      <c r="A795" s="18"/>
     </row>
     <row r="796">
-      <c r="A796" s="21"/>
+      <c r="A796" s="18"/>
     </row>
     <row r="797">
-      <c r="A797" s="21"/>
+      <c r="A797" s="18"/>
     </row>
     <row r="798">
-      <c r="A798" s="21"/>
+      <c r="A798" s="18"/>
     </row>
     <row r="799">
-      <c r="A799" s="21"/>
+      <c r="A799" s="18"/>
     </row>
     <row r="800">
-      <c r="A800" s="21"/>
+      <c r="A800" s="18"/>
     </row>
     <row r="801">
-      <c r="A801" s="21"/>
+      <c r="A801" s="18"/>
     </row>
     <row r="802">
-      <c r="A802" s="21"/>
+      <c r="A802" s="18"/>
     </row>
     <row r="803">
-      <c r="A803" s="21"/>
+      <c r="A803" s="18"/>
     </row>
     <row r="804">
-      <c r="A804" s="21"/>
+      <c r="A804" s="18"/>
     </row>
     <row r="805">
-      <c r="A805" s="21"/>
+      <c r="A805" s="18"/>
     </row>
     <row r="806">
-      <c r="A806" s="21"/>
+      <c r="A806" s="18"/>
     </row>
     <row r="807">
-      <c r="A807" s="21"/>
+      <c r="A807" s="18"/>
     </row>
     <row r="808">
-      <c r="A808" s="21"/>
+      <c r="A808" s="18"/>
     </row>
     <row r="809">
-      <c r="A809" s="21"/>
+      <c r="A809" s="18"/>
     </row>
     <row r="810">
-      <c r="A810" s="21"/>
+      <c r="A810" s="18"/>
     </row>
     <row r="811">
-      <c r="A811" s="21"/>
+      <c r="A811" s="18"/>
     </row>
     <row r="812">
-      <c r="A812" s="21"/>
+      <c r="A812" s="18"/>
     </row>
     <row r="813">
-      <c r="A813" s="21"/>
+      <c r="A813" s="18"/>
     </row>
     <row r="814">
-      <c r="A814" s="21"/>
+      <c r="A814" s="18"/>
     </row>
     <row r="815">
-      <c r="A815" s="21"/>
+      <c r="A815" s="18"/>
     </row>
     <row r="816">
-      <c r="A816" s="21"/>
+      <c r="A816" s="18"/>
     </row>
     <row r="817">
-      <c r="A817" s="21"/>
+      <c r="A817" s="18"/>
     </row>
     <row r="818">
-      <c r="A818" s="21"/>
+      <c r="A818" s="18"/>
     </row>
     <row r="819">
-      <c r="A819" s="21"/>
+      <c r="A819" s="18"/>
     </row>
     <row r="820">
-      <c r="A820" s="21"/>
+      <c r="A820" s="18"/>
     </row>
     <row r="821">
-      <c r="A821" s="21"/>
+      <c r="A821" s="18"/>
     </row>
     <row r="822">
-      <c r="A822" s="21"/>
+      <c r="A822" s="18"/>
     </row>
     <row r="823">
-      <c r="A823" s="21"/>
+      <c r="A823" s="18"/>
     </row>
     <row r="824">
-      <c r="A824" s="21"/>
+      <c r="A824" s="18"/>
     </row>
     <row r="825">
-      <c r="A825" s="21"/>
+      <c r="A825" s="18"/>
     </row>
     <row r="826">
-      <c r="A826" s="21"/>
+      <c r="A826" s="18"/>
     </row>
     <row r="827">
-      <c r="A827" s="21"/>
+      <c r="A827" s="18"/>
     </row>
     <row r="828">
-      <c r="A828" s="21"/>
+      <c r="A828" s="18"/>
     </row>
     <row r="829">
-      <c r="A829" s="21"/>
+      <c r="A829" s="18"/>
     </row>
     <row r="830">
-      <c r="A830" s="21"/>
+      <c r="A830" s="18"/>
     </row>
     <row r="831">
-      <c r="A831" s="21"/>
+      <c r="A831" s="18"/>
     </row>
     <row r="832">
-      <c r="A832" s="21"/>
+      <c r="A832" s="18"/>
     </row>
     <row r="833">
-      <c r="A833" s="21"/>
+      <c r="A833" s="18"/>
     </row>
     <row r="834">
-      <c r="A834" s="21"/>
+      <c r="A834" s="18"/>
     </row>
     <row r="835">
-      <c r="A835" s="21"/>
+      <c r="A835" s="18"/>
     </row>
     <row r="836">
-      <c r="A836" s="21"/>
+      <c r="A836" s="18"/>
     </row>
     <row r="837">
-      <c r="A837" s="21"/>
+      <c r="A837" s="18"/>
     </row>
     <row r="838">
-      <c r="A838" s="21"/>
+      <c r="A838" s="18"/>
     </row>
     <row r="839">
-      <c r="A839" s="21"/>
+      <c r="A839" s="18"/>
     </row>
     <row r="840">
-      <c r="A840" s="21"/>
+      <c r="A840" s="18"/>
     </row>
     <row r="841">
-      <c r="A841" s="21"/>
+      <c r="A841" s="18"/>
     </row>
     <row r="842">
-      <c r="A842" s="21"/>
+      <c r="A842" s="18"/>
     </row>
     <row r="843">
-      <c r="A843" s="21"/>
+      <c r="A843" s="18"/>
     </row>
     <row r="844">
-      <c r="A844" s="21"/>
+      <c r="A844" s="18"/>
     </row>
     <row r="845">
-      <c r="A845" s="21"/>
+      <c r="A845" s="18"/>
     </row>
     <row r="846">
-      <c r="A846" s="21"/>
+      <c r="A846" s="18"/>
     </row>
     <row r="847">
-      <c r="A847" s="21"/>
+      <c r="A847" s="18"/>
     </row>
     <row r="848">
-      <c r="A848" s="21"/>
+      <c r="A848" s="18"/>
     </row>
     <row r="849">
-      <c r="A849" s="21"/>
+      <c r="A849" s="18"/>
     </row>
     <row r="850">
-      <c r="A850" s="21"/>
+      <c r="A850" s="18"/>
     </row>
     <row r="851">
-      <c r="A851" s="21"/>
+      <c r="A851" s="18"/>
     </row>
     <row r="852">
-      <c r="A852" s="21"/>
+      <c r="A852" s="18"/>
     </row>
     <row r="853">
-      <c r="A853" s="21"/>
+      <c r="A853" s="18"/>
     </row>
     <row r="854">
-      <c r="A854" s="21"/>
+      <c r="A854" s="18"/>
     </row>
     <row r="855">
-      <c r="A855" s="21"/>
+      <c r="A855" s="18"/>
     </row>
     <row r="856">
-      <c r="A856" s="21"/>
+      <c r="A856" s="18"/>
     </row>
     <row r="857">
-      <c r="A857" s="21"/>
+      <c r="A857" s="18"/>
     </row>
     <row r="858">
-      <c r="A858" s="21"/>
+      <c r="A858" s="18"/>
     </row>
     <row r="859">
-      <c r="A859" s="21"/>
+      <c r="A859" s="18"/>
     </row>
     <row r="860">
-      <c r="A860" s="21"/>
+      <c r="A860" s="18"/>
     </row>
     <row r="861">
-      <c r="A861" s="21"/>
+      <c r="A861" s="18"/>
     </row>
     <row r="862">
-      <c r="A862" s="21"/>
+      <c r="A862" s="18"/>
     </row>
     <row r="863">
-      <c r="A863" s="21"/>
+      <c r="A863" s="18"/>
     </row>
     <row r="864">
-      <c r="A864" s="21"/>
+      <c r="A864" s="18"/>
     </row>
     <row r="865">
-      <c r="A865" s="21"/>
+      <c r="A865" s="18"/>
     </row>
     <row r="866">
-      <c r="A866" s="21"/>
+      <c r="A866" s="18"/>
     </row>
     <row r="867">
-      <c r="A867" s="21"/>
+      <c r="A867" s="18"/>
     </row>
     <row r="868">
-      <c r="A868" s="21"/>
+      <c r="A868" s="18"/>
     </row>
     <row r="869">
-      <c r="A869" s="21"/>
+      <c r="A869" s="18"/>
     </row>
     <row r="870">
-      <c r="A870" s="21"/>
+      <c r="A870" s="18"/>
     </row>
     <row r="871">
-      <c r="A871" s="21"/>
+      <c r="A871" s="18"/>
     </row>
     <row r="872">
-      <c r="A872" s="21"/>
+      <c r="A872" s="18"/>
     </row>
     <row r="873">
-      <c r="A873" s="21"/>
+      <c r="A873" s="18"/>
     </row>
     <row r="874">
-      <c r="A874" s="21"/>
+      <c r="A874" s="18"/>
     </row>
     <row r="875">
-      <c r="A875" s="21"/>
+      <c r="A875" s="18"/>
     </row>
     <row r="876">
-      <c r="A876" s="21"/>
+      <c r="A876" s="18"/>
     </row>
     <row r="877">
-      <c r="A877" s="21"/>
+      <c r="A877" s="18"/>
     </row>
     <row r="878">
-      <c r="A878" s="21"/>
+      <c r="A878" s="18"/>
     </row>
     <row r="879">
-      <c r="A879" s="21"/>
+      <c r="A879" s="18"/>
     </row>
     <row r="880">
-      <c r="A880" s="21"/>
+      <c r="A880" s="18"/>
     </row>
     <row r="881">
-      <c r="A881" s="21"/>
+      <c r="A881" s="18"/>
     </row>
     <row r="882">
-      <c r="A882" s="21"/>
+      <c r="A882" s="18"/>
     </row>
     <row r="883">
-      <c r="A883" s="21"/>
+      <c r="A883" s="18"/>
     </row>
     <row r="884">
-      <c r="A884" s="21"/>
+      <c r="A884" s="18"/>
     </row>
     <row r="885">
-      <c r="A885" s="21"/>
+      <c r="A885" s="18"/>
     </row>
     <row r="886">
-      <c r="A886" s="21"/>
+      <c r="A886" s="18"/>
     </row>
     <row r="887">
-      <c r="A887" s="21"/>
+      <c r="A887" s="18"/>
     </row>
     <row r="888">
-      <c r="A888" s="21"/>
+      <c r="A888" s="18"/>
     </row>
     <row r="889">
-      <c r="A889" s="21"/>
+      <c r="A889" s="18"/>
     </row>
     <row r="890">
-      <c r="A890" s="21"/>
+      <c r="A890" s="18"/>
     </row>
     <row r="891">
-      <c r="A891" s="21"/>
+      <c r="A891" s="18"/>
     </row>
     <row r="892">
-      <c r="A892" s="21"/>
+      <c r="A892" s="18"/>
     </row>
     <row r="893">
-      <c r="A893" s="21"/>
+      <c r="A893" s="18"/>
     </row>
     <row r="894">
-      <c r="A894" s="21"/>
+      <c r="A894" s="18"/>
     </row>
     <row r="895">
-      <c r="A895" s="21"/>
+      <c r="A895" s="18"/>
     </row>
     <row r="896">
-      <c r="A896" s="21"/>
+      <c r="A896" s="18"/>
     </row>
     <row r="897">
-      <c r="A897" s="21"/>
+      <c r="A897" s="18"/>
     </row>
     <row r="898">
-      <c r="A898" s="21"/>
+      <c r="A898" s="18"/>
     </row>
     <row r="899">
-      <c r="A899" s="21"/>
+      <c r="A899" s="18"/>
     </row>
     <row r="900">
-      <c r="A900" s="21"/>
+      <c r="A900" s="18"/>
     </row>
     <row r="901">
-      <c r="A901" s="21"/>
+      <c r="A901" s="18"/>
     </row>
     <row r="902">
-      <c r="A902" s="21"/>
+      <c r="A902" s="18"/>
     </row>
     <row r="903">
-      <c r="A903" s="21"/>
+      <c r="A903" s="18"/>
     </row>
     <row r="904">
-      <c r="A904" s="21"/>
+      <c r="A904" s="18"/>
     </row>
     <row r="905">
-      <c r="A905" s="21"/>
+      <c r="A905" s="18"/>
     </row>
     <row r="906">
-      <c r="A906" s="21"/>
+      <c r="A906" s="18"/>
     </row>
     <row r="907">
-      <c r="A907" s="21"/>
+      <c r="A907" s="18"/>
     </row>
     <row r="908">
-      <c r="A908" s="21"/>
+      <c r="A908" s="18"/>
     </row>
     <row r="909">
-      <c r="A909" s="21"/>
+      <c r="A909" s="18"/>
     </row>
     <row r="910">
-      <c r="A910" s="21"/>
+      <c r="A910" s="18"/>
     </row>
     <row r="911">
-      <c r="A911" s="21"/>
+      <c r="A911" s="18"/>
     </row>
     <row r="912">
-      <c r="A912" s="21"/>
+      <c r="A912" s="18"/>
     </row>
     <row r="913">
-      <c r="A913" s="21"/>
+      <c r="A913" s="18"/>
     </row>
     <row r="914">
-      <c r="A914" s="21"/>
+      <c r="A914" s="18"/>
     </row>
     <row r="915">
-      <c r="A915" s="21"/>
+      <c r="A915" s="18"/>
     </row>
     <row r="916">
-      <c r="A916" s="21"/>
+      <c r="A916" s="18"/>
     </row>
     <row r="917">
-      <c r="A917" s="21"/>
+      <c r="A917" s="18"/>
     </row>
     <row r="918">
-      <c r="A918" s="21"/>
+      <c r="A918" s="18"/>
     </row>
     <row r="919">
-      <c r="A919" s="21"/>
+      <c r="A919" s="18"/>
     </row>
     <row r="920">
-      <c r="A920" s="21"/>
+      <c r="A920" s="18"/>
     </row>
     <row r="921">
-      <c r="A921" s="21"/>
+      <c r="A921" s="18"/>
     </row>
     <row r="922">
-      <c r="A922" s="21"/>
+      <c r="A922" s="18"/>
     </row>
     <row r="923">
-      <c r="A923" s="21"/>
+      <c r="A923" s="18"/>
     </row>
     <row r="924">
-      <c r="A924" s="21"/>
+      <c r="A924" s="18"/>
     </row>
     <row r="925">
-      <c r="A925" s="21"/>
+      <c r="A925" s="18"/>
     </row>
     <row r="926">
-      <c r="A926" s="21"/>
+      <c r="A926" s="18"/>
     </row>
     <row r="927">
-      <c r="A927" s="21"/>
+      <c r="A927" s="18"/>
     </row>
     <row r="928">
-      <c r="A928" s="21"/>
+      <c r="A928" s="18"/>
     </row>
     <row r="929">
-      <c r="A929" s="21"/>
+      <c r="A929" s="18"/>
     </row>
     <row r="930">
-      <c r="A930" s="21"/>
+      <c r="A930" s="18"/>
     </row>
     <row r="931">
-      <c r="A931" s="21"/>
+      <c r="A931" s="18"/>
     </row>
     <row r="932">
-      <c r="A932" s="21"/>
+      <c r="A932" s="18"/>
     </row>
     <row r="933">
-      <c r="A933" s="21"/>
+      <c r="A933" s="18"/>
     </row>
     <row r="934">
-      <c r="A934" s="21"/>
+      <c r="A934" s="18"/>
     </row>
     <row r="935">
-      <c r="A935" s="21"/>
+      <c r="A935" s="18"/>
     </row>
     <row r="936">
-      <c r="A936" s="21"/>
+      <c r="A936" s="18"/>
     </row>
     <row r="937">
-      <c r="A937" s="21"/>
+      <c r="A937" s="18"/>
     </row>
     <row r="938">
-      <c r="A938" s="21"/>
+      <c r="A938" s="18"/>
     </row>
     <row r="939">
-      <c r="A939" s="21"/>
+      <c r="A939" s="18"/>
     </row>
     <row r="940">
-      <c r="A940" s="21"/>
+      <c r="A940" s="18"/>
     </row>
     <row r="941">
-      <c r="A941" s="21"/>
+      <c r="A941" s="18"/>
     </row>
     <row r="942">
-      <c r="A942" s="21"/>
+      <c r="A942" s="18"/>
     </row>
     <row r="943">
-      <c r="A943" s="21"/>
+      <c r="A943" s="18"/>
     </row>
     <row r="944">
-      <c r="A944" s="21"/>
+      <c r="A944" s="18"/>
     </row>
     <row r="945">
-      <c r="A945" s="21"/>
+      <c r="A945" s="18"/>
     </row>
     <row r="946">
-      <c r="A946" s="21"/>
+      <c r="A946" s="18"/>
     </row>
     <row r="947">
-      <c r="A947" s="21"/>
+      <c r="A947" s="18"/>
     </row>
     <row r="948">
-      <c r="A948" s="21"/>
+      <c r="A948" s="18"/>
     </row>
     <row r="949">
-      <c r="A949" s="21"/>
+      <c r="A949" s="18"/>
     </row>
     <row r="950">
-      <c r="A950" s="21"/>
+      <c r="A950" s="18"/>
     </row>
     <row r="951">
-      <c r="A951" s="21"/>
+      <c r="A951" s="18"/>
     </row>
     <row r="952">
-      <c r="A952" s="21"/>
+      <c r="A952" s="18"/>
     </row>
     <row r="953">
-      <c r="A953" s="21"/>
+      <c r="A953" s="18"/>
     </row>
     <row r="954">
-      <c r="A954" s="21"/>
+      <c r="A954" s="18"/>
     </row>
     <row r="955">
-      <c r="A955" s="21"/>
+      <c r="A955" s="18"/>
     </row>
     <row r="956">
-      <c r="A956" s="21"/>
+      <c r="A956" s="18"/>
     </row>
     <row r="957">
-      <c r="A957" s="21"/>
+      <c r="A957" s="18"/>
     </row>
     <row r="958">
-      <c r="A958" s="21"/>
+      <c r="A958" s="18"/>
     </row>
     <row r="959">
-      <c r="A959" s="21"/>
+      <c r="A959" s="18"/>
     </row>
     <row r="960">
-      <c r="A960" s="21"/>
+      <c r="A960" s="18"/>
     </row>
     <row r="961">
-      <c r="A961" s="21"/>
+      <c r="A961" s="18"/>
     </row>
     <row r="962">
-      <c r="A962" s="21"/>
+      <c r="A962" s="18"/>
     </row>
     <row r="963">
-      <c r="A963" s="21"/>
+      <c r="A963" s="18"/>
     </row>
     <row r="964">
-      <c r="A964" s="21"/>
+      <c r="A964" s="18"/>
     </row>
     <row r="965">
-      <c r="A965" s="21"/>
+      <c r="A965" s="18"/>
     </row>
     <row r="966">
-      <c r="A966" s="21"/>
+      <c r="A966" s="18"/>
     </row>
     <row r="967">
-      <c r="A967" s="21"/>
+      <c r="A967" s="18"/>
     </row>
     <row r="968">
-      <c r="A968" s="21"/>
+      <c r="A968" s="18"/>
     </row>
     <row r="969">
-      <c r="A969" s="21"/>
+      <c r="A969" s="18"/>
     </row>
     <row r="970">
-      <c r="A970" s="21"/>
+      <c r="A970" s="18"/>
     </row>
     <row r="971">
-      <c r="A971" s="21"/>
+      <c r="A971" s="18"/>
     </row>
     <row r="972">
-      <c r="A972" s="21"/>
+      <c r="A972" s="18"/>
     </row>
     <row r="973">
-      <c r="A973" s="21"/>
+      <c r="A973" s="18"/>
     </row>
     <row r="974">
-      <c r="A974" s="21"/>
+      <c r="A974" s="18"/>
     </row>
     <row r="975">
-      <c r="A975" s="21"/>
+      <c r="A975" s="18"/>
     </row>
     <row r="976">
-      <c r="A976" s="21"/>
+      <c r="A976" s="18"/>
     </row>
     <row r="977">
-      <c r="A977" s="21"/>
+      <c r="A977" s="18"/>
     </row>
     <row r="978">
-      <c r="A978" s="21"/>
+      <c r="A978" s="18"/>
     </row>
     <row r="979">
-      <c r="A979" s="21"/>
+      <c r="A979" s="18"/>
     </row>
     <row r="980">
-      <c r="A980" s="21"/>
+      <c r="A980" s="18"/>
     </row>
     <row r="981">
-      <c r="A981" s="21"/>
+      <c r="A981" s="18"/>
     </row>
     <row r="982">
-      <c r="A982" s="21"/>
+      <c r="A982" s="18"/>
     </row>
     <row r="983">
-      <c r="A983" s="21"/>
+      <c r="A983" s="18"/>
     </row>
     <row r="984">
-      <c r="A984" s="21"/>
+      <c r="A984" s="18"/>
     </row>
     <row r="985">
-      <c r="A985" s="21"/>
+      <c r="A985" s="18"/>
     </row>
     <row r="986">
-      <c r="A986" s="21"/>
+      <c r="A986" s="18"/>
     </row>
     <row r="987">
-      <c r="A987" s="21"/>
+      <c r="A987" s="18"/>
     </row>
     <row r="988">
-      <c r="A988" s="21"/>
+      <c r="A988" s="18"/>
     </row>
     <row r="989">
-      <c r="A989" s="21"/>
+      <c r="A989" s="18"/>
     </row>
     <row r="990">
-      <c r="A990" s="21"/>
+      <c r="A990" s="18"/>
     </row>
     <row r="991">
-      <c r="A991" s="21"/>
+      <c r="A991" s="18"/>
     </row>
     <row r="992">
-      <c r="A992" s="21"/>
+      <c r="A992" s="18"/>
     </row>
     <row r="993">
-      <c r="A993" s="21"/>
+      <c r="A993" s="18"/>
     </row>
     <row r="994">
-      <c r="A994" s="21"/>
+      <c r="A994" s="18"/>
     </row>
     <row r="995">
-      <c r="A995" s="21"/>
+      <c r="A995" s="18"/>
     </row>
     <row r="996">
-      <c r="A996" s="21"/>
+      <c r="A996" s="18"/>
     </row>
     <row r="997">
-      <c r="A997" s="21"/>
+      <c r="A997" s="18"/>
     </row>
     <row r="998">
-      <c r="A998" s="21"/>
+      <c r="A998" s="18"/>
     </row>
     <row r="999">
-      <c r="A999" s="21"/>
+      <c r="A999" s="18"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="21"/>
+      <c r="A1000" s="18"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="21"/>
+      <c r="A1001" s="18"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="21"/>
+      <c r="A1002" s="18"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="21"/>
+      <c r="A1003" s="18"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="21"/>
+      <c r="A1004" s="18"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="21"/>
+      <c r="A1005" s="18"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="21"/>
+      <c r="A1006" s="18"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="21"/>
+      <c r="A1007" s="18"/>
     </row>
     <row r="1008">
-      <c r="A1008" s="21"/>
+      <c r="A1008" s="18"/>
     </row>
     <row r="1009">
-      <c r="A1009" s="21"/>
+      <c r="A1009" s="18"/>
     </row>
     <row r="1010">
-      <c r="A1010" s="21"/>
+      <c r="A1010" s="18"/>
     </row>
     <row r="1011">
-      <c r="A1011" s="21"/>
+      <c r="A1011" s="18"/>
     </row>
     <row r="1012">
-      <c r="A1012" s="21"/>
+      <c r="A1012" s="18"/>
     </row>
     <row r="1013">
-      <c r="A1013" s="21"/>
+      <c r="A1013" s="18"/>
     </row>
     <row r="1014">
-      <c r="A1014" s="21"/>
+      <c r="A1014" s="18"/>
     </row>
     <row r="1015">
-      <c r="A1015" s="21"/>
+      <c r="A1015" s="18"/>
     </row>
     <row r="1016">
-      <c r="A1016" s="21"/>
+      <c r="A1016" s="18"/>
     </row>
     <row r="1017">
-      <c r="A1017" s="21"/>
+      <c r="A1017" s="18"/>
     </row>
     <row r="1018">
-      <c r="A1018" s="21"/>
+      <c r="A1018" s="18"/>
     </row>
     <row r="1019">
-      <c r="A1019" s="21"/>
+      <c r="A1019" s="18"/>
     </row>
     <row r="1020">
-      <c r="A1020" s="21"/>
+      <c r="A1020" s="18"/>
     </row>
     <row r="1021">
-      <c r="A1021" s="21"/>
+      <c r="A1021" s="18"/>
     </row>
     <row r="1022">
-      <c r="A1022" s="21"/>
+      <c r="A1022" s="18"/>
     </row>
     <row r="1023">
-      <c r="A1023" s="21"/>
+      <c r="A1023" s="18"/>
     </row>
     <row r="1024">
-      <c r="A1024" s="21"/>
+      <c r="A1024" s="18"/>
     </row>
     <row r="1025">
-      <c r="A1025" s="21"/>
+      <c r="A1025" s="18"/>
     </row>
     <row r="1026">
-      <c r="A1026" s="21"/>
+      <c r="A1026" s="18"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="18"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="18"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="18"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="18"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C206">
+  <conditionalFormatting sqref="C3:C211">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Select">
       <formula>NOT(ISERROR(SEARCH(("Select"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C3:C206">
+    <dataValidation type="list" allowBlank="1" sqref="C3:C211">
       <formula1>Functions!$A$1:$A$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -6829,177 +6888,167 @@
     <hyperlink r:id="rId3" location="Meta" ref="D4"/>
     <hyperlink r:id="rId4" location="uri" ref="D5"/>
     <hyperlink r:id="rId5" location="code" ref="D6"/>
-    <hyperlink r:id="rId6" ref="E6"/>
-    <hyperlink r:id="rId7" location="Narrative" ref="D7"/>
-    <hyperlink r:id="rId8" ref="D8"/>
-    <hyperlink r:id="rId9" location="Extension" ref="D11"/>
-    <hyperlink r:id="rId10" location="identifier" ref="D12"/>
-    <hyperlink r:id="rId11" location="code" ref="D13"/>
-    <hyperlink r:id="rId12" location="codeableconcept" ref="D14"/>
-    <hyperlink r:id="rId13" ref="E14"/>
-    <hyperlink r:id="rId14" location="coding" ref="D15"/>
-    <hyperlink r:id="rId15" location="uri" ref="D16"/>
-    <hyperlink r:id="rId16" location="string" ref="D17"/>
-    <hyperlink r:id="rId17" location="code" ref="D18"/>
-    <hyperlink r:id="rId18" location="string" ref="D19"/>
-    <hyperlink r:id="rId19" location="boolean" ref="D20"/>
-    <hyperlink r:id="rId20" location="string" ref="D21"/>
-    <hyperlink r:id="rId21" location="uri" ref="D22"/>
-    <hyperlink r:id="rId22" location="string" ref="D23"/>
-    <hyperlink r:id="rId23" location="period" ref="D24"/>
-    <hyperlink r:id="rId24" location="datetime" ref="D25"/>
-    <hyperlink r:id="rId25" location="datetime" ref="D26"/>
-    <hyperlink r:id="rId26" location="string" ref="D29"/>
-    <hyperlink r:id="rId27" location="identifier" ref="D30"/>
-    <hyperlink r:id="rId28" location="string" ref="D31"/>
-    <hyperlink r:id="rId29" location="string" ref="D37"/>
-    <hyperlink r:id="rId30" location="identifier" ref="D38"/>
-    <hyperlink r:id="rId31" location="string" ref="D39"/>
-    <hyperlink r:id="rId32" location="string" ref="D46"/>
-    <hyperlink r:id="rId33" location="identifier" ref="D47"/>
-    <hyperlink r:id="rId34" location="string" ref="D48"/>
-    <hyperlink r:id="rId35" location="string" ref="D52"/>
-    <hyperlink r:id="rId36" location="identifier" ref="D53"/>
-    <hyperlink r:id="rId37" location="string" ref="D54"/>
-    <hyperlink r:id="rId38" location="code" ref="D55"/>
-    <hyperlink r:id="rId39" location="codeableconcept" ref="D56"/>
-    <hyperlink r:id="rId40" ref="E56"/>
-    <hyperlink r:id="rId41" location="coding" ref="D57"/>
-    <hyperlink r:id="rId42" location="uri" ref="D58"/>
-    <hyperlink r:id="rId43" location="string" ref="D59"/>
-    <hyperlink r:id="rId44" location="code" ref="D60"/>
-    <hyperlink r:id="rId45" location="string" ref="D61"/>
-    <hyperlink r:id="rId46" location="boolean" ref="D62"/>
-    <hyperlink r:id="rId47" location="string" ref="D63"/>
-    <hyperlink r:id="rId48" ref="E64"/>
-    <hyperlink r:id="rId49" location="datetime" ref="D66"/>
-    <hyperlink r:id="rId50" location="datetime" ref="D68"/>
-    <hyperlink r:id="rId51" location="string" ref="D74"/>
-    <hyperlink r:id="rId52" location="identifier" ref="D75"/>
-    <hyperlink r:id="rId53" location="string" ref="D76"/>
-    <hyperlink r:id="rId54" location="string" ref="D80"/>
-    <hyperlink r:id="rId55" location="identifier" ref="D81"/>
-    <hyperlink r:id="rId56" location="string" ref="D82"/>
-    <hyperlink r:id="rId57" location="string" ref="D85"/>
-    <hyperlink r:id="rId58" location="identifier" ref="D86"/>
-    <hyperlink r:id="rId59" location="string" ref="D87"/>
-    <hyperlink r:id="rId60" location="code" ref="D88"/>
-    <hyperlink r:id="rId61" location="codeableconcept" ref="D89"/>
-    <hyperlink r:id="rId62" ref="E89"/>
-    <hyperlink r:id="rId63" location="coding" ref="D90"/>
-    <hyperlink r:id="rId64" location="uri" ref="D91"/>
-    <hyperlink r:id="rId65" location="string" ref="D92"/>
-    <hyperlink r:id="rId66" location="code" ref="D93"/>
-    <hyperlink r:id="rId67" location="string" ref="D94"/>
-    <hyperlink r:id="rId68" location="boolean" ref="D95"/>
-    <hyperlink r:id="rId69" location="string" ref="D96"/>
-    <hyperlink r:id="rId70" location="codeableconcept" ref="D97"/>
-    <hyperlink r:id="rId71" ref="E97"/>
-    <hyperlink r:id="rId72" location="coding" ref="D98"/>
-    <hyperlink r:id="rId73" location="uri" ref="D99"/>
-    <hyperlink r:id="rId74" location="string" ref="D100"/>
-    <hyperlink r:id="rId75" location="code" ref="D101"/>
-    <hyperlink r:id="rId76" location="string" ref="D102"/>
-    <hyperlink r:id="rId77" location="boolean" ref="D103"/>
-    <hyperlink r:id="rId78" location="string" ref="D104"/>
-    <hyperlink r:id="rId79" location="string" ref="D108"/>
-    <hyperlink r:id="rId80" location="identifier" ref="D109"/>
-    <hyperlink r:id="rId81" location="string" ref="D110"/>
-    <hyperlink r:id="rId82" location="annotation" ref="D111"/>
-    <hyperlink r:id="rId83" location="datetime" ref="D116"/>
-    <hyperlink r:id="rId84" location="string" ref="D117"/>
-    <hyperlink r:id="rId85" location="dosage" ref="D118"/>
-    <hyperlink r:id="rId86" location="integer" ref="D119"/>
-    <hyperlink r:id="rId87" location="string" ref="D120"/>
-    <hyperlink r:id="rId88" location="codeableconcept" ref="D121"/>
-    <hyperlink r:id="rId89" ref="E121"/>
-    <hyperlink r:id="rId90" location="coding" ref="D122"/>
-    <hyperlink r:id="rId91" location="uri" ref="D123"/>
-    <hyperlink r:id="rId92" location="string" ref="D124"/>
-    <hyperlink r:id="rId93" location="code" ref="D125"/>
-    <hyperlink r:id="rId94" location="string" ref="D126"/>
-    <hyperlink r:id="rId95" location="boolean" ref="D127"/>
-    <hyperlink r:id="rId96" location="string" ref="D128"/>
-    <hyperlink r:id="rId97" location="string" ref="D129"/>
-    <hyperlink r:id="rId98" location="timing" ref="D130"/>
-    <hyperlink r:id="rId99" location="datetime" ref="D131"/>
-    <hyperlink r:id="rId100" ref="D132"/>
-    <hyperlink r:id="rId101" location="integer" ref="D134"/>
-    <hyperlink r:id="rId102" location="integer" ref="D135"/>
-    <hyperlink r:id="rId103" location="decimal" ref="D136"/>
-    <hyperlink r:id="rId104" location="decimal" ref="D137"/>
-    <hyperlink r:id="rId105" location="code" ref="D138"/>
-    <hyperlink r:id="rId106" location="integer" ref="D139"/>
-    <hyperlink r:id="rId107" location="integer" ref="D140"/>
-    <hyperlink r:id="rId108" location="decimal" ref="D141"/>
-    <hyperlink r:id="rId109" location="decimal" ref="D142"/>
-    <hyperlink r:id="rId110" location="code" ref="D143"/>
-    <hyperlink r:id="rId111" location="code" ref="D144"/>
-    <hyperlink r:id="rId112" location="time" ref="D145"/>
-    <hyperlink r:id="rId113" location="code" ref="D146"/>
-    <hyperlink r:id="rId114" ref="E146"/>
-    <hyperlink r:id="rId115" location="unsignedint" ref="D147"/>
-    <hyperlink r:id="rId116" location="codeableconcept" ref="D148"/>
-    <hyperlink r:id="rId117" location="coding" ref="D149"/>
-    <hyperlink r:id="rId118" location="uri" ref="D150"/>
-    <hyperlink r:id="rId119" location="string" ref="D151"/>
-    <hyperlink r:id="rId120" location="code" ref="D152"/>
-    <hyperlink r:id="rId121" location="string" ref="D153"/>
-    <hyperlink r:id="rId122" location="boolean" ref="D154"/>
-    <hyperlink r:id="rId123" location="string" ref="D155"/>
-    <hyperlink r:id="rId124" ref="E156"/>
-    <hyperlink r:id="rId125" location="codeableconcept" ref="D157"/>
-    <hyperlink r:id="rId126" ref="E157"/>
-    <hyperlink r:id="rId127" location="coding" ref="D158"/>
-    <hyperlink r:id="rId128" location="uri" ref="D159"/>
-    <hyperlink r:id="rId129" location="string" ref="D160"/>
-    <hyperlink r:id="rId130" location="code" ref="D161"/>
-    <hyperlink r:id="rId131" location="string" ref="D162"/>
-    <hyperlink r:id="rId132" location="boolean" ref="D163"/>
-    <hyperlink r:id="rId133" location="string" ref="D164"/>
-    <hyperlink r:id="rId134" location="codeableconcept" ref="D165"/>
-    <hyperlink r:id="rId135" ref="E165"/>
-    <hyperlink r:id="rId136" location="coding" ref="D166"/>
-    <hyperlink r:id="rId137" location="coding" ref="D167"/>
-    <hyperlink r:id="rId138" ref="E167"/>
-    <hyperlink r:id="rId139" location="uri" ref="D169"/>
-    <hyperlink r:id="rId140" location="string" ref="D170"/>
-    <hyperlink r:id="rId141" location="code" ref="D171"/>
-    <hyperlink r:id="rId142" location="string" ref="D172"/>
-    <hyperlink r:id="rId143" location="boolean" ref="D173"/>
-    <hyperlink r:id="rId144" location="string" ref="D174"/>
-    <hyperlink r:id="rId145" location="codeableconcept" ref="D175"/>
-    <hyperlink r:id="rId146" ref="E175"/>
-    <hyperlink r:id="rId147" location="coding" ref="D176"/>
-    <hyperlink r:id="rId148" location="uri" ref="D177"/>
-    <hyperlink r:id="rId149" location="string" ref="D178"/>
-    <hyperlink r:id="rId150" location="code" ref="D179"/>
-    <hyperlink r:id="rId151" location="string" ref="D180"/>
-    <hyperlink r:id="rId152" location="boolean" ref="D181"/>
-    <hyperlink r:id="rId153" location="string" ref="D182"/>
-    <hyperlink r:id="rId154" location="ratio" ref="D184"/>
-    <hyperlink r:id="rId155" location="quantity" ref="D185"/>
-    <hyperlink r:id="rId156" location="decimal" ref="D186"/>
-    <hyperlink r:id="rId157" location="code" ref="D187"/>
-    <hyperlink r:id="rId158" location="string" ref="D188"/>
-    <hyperlink r:id="rId159" location="uri" ref="D189"/>
-    <hyperlink r:id="rId160" location="code" ref="D190"/>
-    <hyperlink r:id="rId161" location="quantity" ref="D191"/>
-    <hyperlink r:id="rId162" location="decimal" ref="D192"/>
-    <hyperlink r:id="rId163" location="code" ref="D193"/>
-    <hyperlink r:id="rId164" location="string" ref="D194"/>
-    <hyperlink r:id="rId165" location="uri" ref="D195"/>
-    <hyperlink r:id="rId166" location="code" ref="D196"/>
-    <hyperlink r:id="rId167" location="decimal" ref="D198"/>
-    <hyperlink r:id="rId168" location="string" ref="D199"/>
-    <hyperlink r:id="rId169" location="uri" ref="D200"/>
-    <hyperlink r:id="rId170" location="code" ref="D201"/>
-    <hyperlink r:id="rId171" location="decimal" ref="D203"/>
-    <hyperlink r:id="rId172" location="string" ref="D204"/>
-    <hyperlink r:id="rId173" location="uri" ref="D205"/>
-    <hyperlink r:id="rId174" location="code" ref="D206"/>
+    <hyperlink r:id="rId6" location="Narrative" ref="D7"/>
+    <hyperlink r:id="rId7" ref="D8"/>
+    <hyperlink r:id="rId8" location="Extension" ref="D11"/>
+    <hyperlink r:id="rId9" location="identifier" ref="D12"/>
+    <hyperlink r:id="rId10" location="code" ref="D13"/>
+    <hyperlink r:id="rId11" location="codeableconcept" ref="D14"/>
+    <hyperlink r:id="rId12" location="coding" ref="D15"/>
+    <hyperlink r:id="rId13" location="uri" ref="D16"/>
+    <hyperlink r:id="rId14" location="string" ref="D17"/>
+    <hyperlink r:id="rId15" location="code" ref="D18"/>
+    <hyperlink r:id="rId16" location="string" ref="D19"/>
+    <hyperlink r:id="rId17" location="boolean" ref="D20"/>
+    <hyperlink r:id="rId18" location="string" ref="D21"/>
+    <hyperlink r:id="rId19" location="uri" ref="D22"/>
+    <hyperlink r:id="rId20" location="string" ref="D23"/>
+    <hyperlink r:id="rId21" location="period" ref="D24"/>
+    <hyperlink r:id="rId22" location="datetime" ref="D25"/>
+    <hyperlink r:id="rId23" location="datetime" ref="D26"/>
+    <hyperlink r:id="rId24" location="string" ref="D29"/>
+    <hyperlink r:id="rId25" location="identifier" ref="D30"/>
+    <hyperlink r:id="rId26" location="string" ref="D31"/>
+    <hyperlink r:id="rId27" location="string" ref="D37"/>
+    <hyperlink r:id="rId28" location="identifier" ref="D38"/>
+    <hyperlink r:id="rId29" location="string" ref="D39"/>
+    <hyperlink r:id="rId30" location="string" ref="D46"/>
+    <hyperlink r:id="rId31" location="identifier" ref="D47"/>
+    <hyperlink r:id="rId32" location="string" ref="D48"/>
+    <hyperlink r:id="rId33" location="string" ref="D52"/>
+    <hyperlink r:id="rId34" location="identifier" ref="D53"/>
+    <hyperlink r:id="rId35" location="string" ref="D54"/>
+    <hyperlink r:id="rId36" location="code" ref="D55"/>
+    <hyperlink r:id="rId37" location="codeableconcept" ref="D56"/>
+    <hyperlink r:id="rId38" location="coding" ref="D57"/>
+    <hyperlink r:id="rId39" location="uri" ref="D58"/>
+    <hyperlink r:id="rId40" location="string" ref="D59"/>
+    <hyperlink r:id="rId41" location="code" ref="D60"/>
+    <hyperlink r:id="rId42" location="string" ref="D61"/>
+    <hyperlink r:id="rId43" location="boolean" ref="D62"/>
+    <hyperlink r:id="rId44" location="string" ref="D63"/>
+    <hyperlink r:id="rId45" location="datetime" ref="D66"/>
+    <hyperlink r:id="rId46" location="datetime" ref="D68"/>
+    <hyperlink r:id="rId47" location="string" ref="D74"/>
+    <hyperlink r:id="rId48" location="identifier" ref="D75"/>
+    <hyperlink r:id="rId49" location="string" ref="D76"/>
+    <hyperlink r:id="rId50" location="string" ref="D80"/>
+    <hyperlink r:id="rId51" location="identifier" ref="D81"/>
+    <hyperlink r:id="rId52" location="string" ref="D82"/>
+    <hyperlink r:id="rId53" location="string" ref="D85"/>
+    <hyperlink r:id="rId54" location="identifier" ref="D86"/>
+    <hyperlink r:id="rId55" location="string" ref="D87"/>
+    <hyperlink r:id="rId56" location="code" ref="D88"/>
+    <hyperlink r:id="rId57" location="codeableconcept" ref="D89"/>
+    <hyperlink r:id="rId58" location="coding" ref="D90"/>
+    <hyperlink r:id="rId59" location="uri" ref="D91"/>
+    <hyperlink r:id="rId60" location="string" ref="D92"/>
+    <hyperlink r:id="rId61" location="code" ref="D93"/>
+    <hyperlink r:id="rId62" location="string" ref="D94"/>
+    <hyperlink r:id="rId63" location="boolean" ref="D95"/>
+    <hyperlink r:id="rId64" location="string" ref="D96"/>
+    <hyperlink r:id="rId65" location="codeableconcept" ref="D97"/>
+    <hyperlink r:id="rId66" location="coding" ref="D98"/>
+    <hyperlink r:id="rId67" location="uri" ref="D99"/>
+    <hyperlink r:id="rId68" location="string" ref="D100"/>
+    <hyperlink r:id="rId69" location="code" ref="D101"/>
+    <hyperlink r:id="rId70" location="string" ref="D102"/>
+    <hyperlink r:id="rId71" location="boolean" ref="D103"/>
+    <hyperlink r:id="rId72" location="string" ref="D104"/>
+    <hyperlink r:id="rId73" location="string" ref="D108"/>
+    <hyperlink r:id="rId74" location="identifier" ref="D109"/>
+    <hyperlink r:id="rId75" location="string" ref="D110"/>
+    <hyperlink r:id="rId76" location="annotation" ref="D111"/>
+    <hyperlink r:id="rId77" location="string" ref="D116"/>
+    <hyperlink r:id="rId78" location="datetime" ref="D117"/>
+    <hyperlink r:id="rId79" location="string" ref="D118"/>
+    <hyperlink r:id="rId80" location="dosage" ref="D119"/>
+    <hyperlink r:id="rId81" location="integer" ref="D120"/>
+    <hyperlink r:id="rId82" location="string" ref="D121"/>
+    <hyperlink r:id="rId83" location="codeableconcept" ref="D122"/>
+    <hyperlink r:id="rId84" location="coding" ref="D123"/>
+    <hyperlink r:id="rId85" location="uri" ref="D124"/>
+    <hyperlink r:id="rId86" location="string" ref="D125"/>
+    <hyperlink r:id="rId87" location="code" ref="D126"/>
+    <hyperlink r:id="rId88" location="string" ref="D127"/>
+    <hyperlink r:id="rId89" location="boolean" ref="D128"/>
+    <hyperlink r:id="rId90" location="string" ref="D129"/>
+    <hyperlink r:id="rId91" location="string" ref="D130"/>
+    <hyperlink r:id="rId92" location="timing" ref="D131"/>
+    <hyperlink r:id="rId93" location="datetime" ref="D132"/>
+    <hyperlink r:id="rId94" ref="D133"/>
+    <hyperlink r:id="rId95" location="integer" ref="D137"/>
+    <hyperlink r:id="rId96" location="integer" ref="D138"/>
+    <hyperlink r:id="rId97" location="decimal" ref="D139"/>
+    <hyperlink r:id="rId98" location="decimal" ref="D140"/>
+    <hyperlink r:id="rId99" location="code" ref="D141"/>
+    <hyperlink r:id="rId100" location="integer" ref="D142"/>
+    <hyperlink r:id="rId101" location="integer" ref="D143"/>
+    <hyperlink r:id="rId102" location="decimal" ref="D144"/>
+    <hyperlink r:id="rId103" location="decimal" ref="D145"/>
+    <hyperlink r:id="rId104" location="code" ref="D146"/>
+    <hyperlink r:id="rId105" location="code" ref="D147"/>
+    <hyperlink r:id="rId106" location="time" ref="D148"/>
+    <hyperlink r:id="rId107" location="code" ref="D149"/>
+    <hyperlink r:id="rId108" location="unsignedint" ref="D150"/>
+    <hyperlink r:id="rId109" location="codeableconcept" ref="D151"/>
+    <hyperlink r:id="rId110" location="coding" ref="D152"/>
+    <hyperlink r:id="rId111" location="uri" ref="D153"/>
+    <hyperlink r:id="rId112" location="string" ref="D154"/>
+    <hyperlink r:id="rId113" location="code" ref="D155"/>
+    <hyperlink r:id="rId114" location="string" ref="D156"/>
+    <hyperlink r:id="rId115" location="boolean" ref="D157"/>
+    <hyperlink r:id="rId116" location="string" ref="D158"/>
+    <hyperlink r:id="rId117" location="boolean" ref="D159"/>
+    <hyperlink r:id="rId118" location="codeableconcept" ref="D160"/>
+    <hyperlink r:id="rId119" location="codeableconcept" ref="D161"/>
+    <hyperlink r:id="rId120" location="coding" ref="D162"/>
+    <hyperlink r:id="rId121" location="uri" ref="D163"/>
+    <hyperlink r:id="rId122" location="string" ref="D164"/>
+    <hyperlink r:id="rId123" location="code" ref="D165"/>
+    <hyperlink r:id="rId124" location="string" ref="D166"/>
+    <hyperlink r:id="rId125" location="boolean" ref="D167"/>
+    <hyperlink r:id="rId126" location="string" ref="D168"/>
+    <hyperlink r:id="rId127" location="codeableconcept" ref="D169"/>
+    <hyperlink r:id="rId128" location="coding" ref="D170"/>
+    <hyperlink r:id="rId129" location="coding" ref="D171"/>
+    <hyperlink r:id="rId130" location="uri" ref="D173"/>
+    <hyperlink r:id="rId131" location="string" ref="D174"/>
+    <hyperlink r:id="rId132" location="code" ref="D175"/>
+    <hyperlink r:id="rId133" location="string" ref="D176"/>
+    <hyperlink r:id="rId134" location="boolean" ref="D177"/>
+    <hyperlink r:id="rId135" location="string" ref="D178"/>
+    <hyperlink r:id="rId136" location="codeableconcept" ref="D179"/>
+    <hyperlink r:id="rId137" location="coding" ref="D180"/>
+    <hyperlink r:id="rId138" location="uri" ref="D181"/>
+    <hyperlink r:id="rId139" location="string" ref="D182"/>
+    <hyperlink r:id="rId140" location="code" ref="D183"/>
+    <hyperlink r:id="rId141" location="string" ref="D184"/>
+    <hyperlink r:id="rId142" location="boolean" ref="D185"/>
+    <hyperlink r:id="rId143" location="string" ref="D186"/>
+    <hyperlink r:id="rId144" location="ratio" ref="D189"/>
+    <hyperlink r:id="rId145" location="quantity" ref="D190"/>
+    <hyperlink r:id="rId146" location="decimal" ref="D191"/>
+    <hyperlink r:id="rId147" location="code" ref="D192"/>
+    <hyperlink r:id="rId148" location="string" ref="D193"/>
+    <hyperlink r:id="rId149" location="uri" ref="D194"/>
+    <hyperlink r:id="rId150" location="code" ref="D195"/>
+    <hyperlink r:id="rId151" location="quantity" ref="D196"/>
+    <hyperlink r:id="rId152" location="decimal" ref="D197"/>
+    <hyperlink r:id="rId153" location="code" ref="D198"/>
+    <hyperlink r:id="rId154" location="string" ref="D199"/>
+    <hyperlink r:id="rId155" location="uri" ref="D200"/>
+    <hyperlink r:id="rId156" location="code" ref="D201"/>
+    <hyperlink r:id="rId157" location="decimal" ref="D203"/>
+    <hyperlink r:id="rId158" location="string" ref="D204"/>
+    <hyperlink r:id="rId159" location="uri" ref="D205"/>
+    <hyperlink r:id="rId160" location="code" ref="D206"/>
+    <hyperlink r:id="rId161" location="decimal" ref="D208"/>
+    <hyperlink r:id="rId162" location="string" ref="D209"/>
+    <hyperlink r:id="rId163" location="uri" ref="D210"/>
+    <hyperlink r:id="rId164" location="code" ref="D211"/>
   </hyperlinks>
-  <drawing r:id="rId175"/>
+  <drawing r:id="rId165"/>
 </worksheet>
 </file>
 
@@ -7014,27 +7063,27 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
